--- a/Code/Results/Cases/Case_5_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_50/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9958455197846788</v>
+        <v>0.9951435653302608</v>
       </c>
       <c r="D2">
-        <v>1.016290277175025</v>
+        <v>1.016203819569771</v>
       </c>
       <c r="E2">
-        <v>1.002819597695479</v>
+        <v>1.001824973230838</v>
       </c>
       <c r="F2">
-        <v>1.01398263298822</v>
+        <v>1.015986578945344</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045376265454202</v>
+        <v>1.041013596660137</v>
       </c>
       <c r="J2">
-        <v>1.018151204684394</v>
+        <v>1.01747050817505</v>
       </c>
       <c r="K2">
-        <v>1.027527233422398</v>
+        <v>1.02744193240678</v>
       </c>
       <c r="L2">
-        <v>1.014239790315943</v>
+        <v>1.01325894169629</v>
       </c>
       <c r="M2">
-        <v>1.025250544819641</v>
+        <v>1.027227599017659</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005295550546539</v>
+        <v>1.00218464349678</v>
       </c>
       <c r="D3">
-        <v>1.023722254119365</v>
+        <v>1.021684513659598</v>
       </c>
       <c r="E3">
-        <v>1.011056133434536</v>
+        <v>1.00765633028739</v>
       </c>
       <c r="F3">
-        <v>1.022580836802853</v>
+        <v>1.022348946250985</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048880668144318</v>
+        <v>1.042881299552037</v>
       </c>
       <c r="J3">
-        <v>1.025642887188328</v>
+        <v>1.022615929581925</v>
       </c>
       <c r="K3">
-        <v>1.034060341574657</v>
+        <v>1.032047256058958</v>
       </c>
       <c r="L3">
-        <v>1.021549476774052</v>
+        <v>1.018192175345854</v>
       </c>
       <c r="M3">
-        <v>1.032932719413636</v>
+        <v>1.032703636163689</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011178612652657</v>
+        <v>1.006611884877802</v>
       </c>
       <c r="D4">
-        <v>1.028351738376101</v>
+        <v>1.025132968905003</v>
       </c>
       <c r="E4">
-        <v>1.016185051491562</v>
+        <v>1.011329348995717</v>
       </c>
       <c r="F4">
-        <v>1.027941324871665</v>
+        <v>1.02635559945104</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051046292692924</v>
+        <v>1.044043086222416</v>
       </c>
       <c r="J4">
-        <v>1.030300627347115</v>
+        <v>1.025847956947156</v>
       </c>
       <c r="K4">
-        <v>1.038119613455592</v>
+        <v>1.034937236561891</v>
       </c>
       <c r="L4">
-        <v>1.026091984185534</v>
+        <v>1.021292935041243</v>
       </c>
       <c r="M4">
-        <v>1.03771382461623</v>
+        <v>1.036146010466206</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013600313373815</v>
+        <v>1.008443897980565</v>
       </c>
       <c r="D5">
-        <v>1.030257915768701</v>
+        <v>1.026560406603172</v>
       </c>
       <c r="E5">
-        <v>1.018296521482702</v>
+        <v>1.012850710800891</v>
       </c>
       <c r="F5">
-        <v>1.030149623393979</v>
+        <v>1.028014954502412</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051933821928472</v>
+        <v>1.044520756078121</v>
       </c>
       <c r="J5">
-        <v>1.032216375539182</v>
+        <v>1.02718453039183</v>
       </c>
       <c r="K5">
-        <v>1.039788571082323</v>
+        <v>1.036131663235453</v>
       </c>
       <c r="L5">
-        <v>1.02795983406534</v>
+        <v>1.022575699887937</v>
       </c>
       <c r="M5">
-        <v>1.039681462748764</v>
+        <v>1.037570196338155</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014004011787557</v>
+        <v>1.008749834015786</v>
       </c>
       <c r="D6">
-        <v>1.030575701192476</v>
+        <v>1.026798804204298</v>
       </c>
       <c r="E6">
-        <v>1.018648513386353</v>
+        <v>1.013104852527131</v>
       </c>
       <c r="F6">
-        <v>1.030517844271768</v>
+        <v>1.028292136269684</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052081539991812</v>
+        <v>1.044600341139244</v>
       </c>
       <c r="J6">
-        <v>1.032535637328878</v>
+        <v>1.027407678577625</v>
       </c>
       <c r="K6">
-        <v>1.040066666325769</v>
+        <v>1.036331037517327</v>
       </c>
       <c r="L6">
-        <v>1.028271083892213</v>
+        <v>1.022789892215645</v>
       </c>
       <c r="M6">
-        <v>1.040009438777657</v>
+        <v>1.037808008233031</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011211169165178</v>
+        <v>1.006636476989099</v>
       </c>
       <c r="D7">
-        <v>1.028377362594702</v>
+        <v>1.02515212853753</v>
       </c>
       <c r="E7">
-        <v>1.016213436693817</v>
+        <v>1.011349765444323</v>
       </c>
       <c r="F7">
-        <v>1.027971005878927</v>
+        <v>1.026377868528214</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051058240007891</v>
+        <v>1.044049510528549</v>
       </c>
       <c r="J7">
-        <v>1.030326388303037</v>
+        <v>1.025865901970481</v>
       </c>
       <c r="K7">
-        <v>1.038142058411557</v>
+        <v>1.034953275894391</v>
       </c>
       <c r="L7">
-        <v>1.026117103052466</v>
+        <v>1.021310155748878</v>
       </c>
       <c r="M7">
-        <v>1.037740278816871</v>
+        <v>1.036165129331224</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9990897032239511</v>
+        <v>0.9975508289398444</v>
       </c>
       <c r="D8">
-        <v>1.018840976750853</v>
+        <v>1.018077041522567</v>
       </c>
       <c r="E8">
-        <v>1.00564683987031</v>
+        <v>1.003817236394765</v>
       </c>
       <c r="F8">
-        <v>1.01693265118032</v>
+        <v>1.018160437283289</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046582669880206</v>
+        <v>1.041654752898932</v>
       </c>
       <c r="J8">
-        <v>1.020724344247583</v>
+        <v>1.019230315771261</v>
       </c>
       <c r="K8">
-        <v>1.029771642475952</v>
+        <v>1.029017591046545</v>
       </c>
       <c r="L8">
-        <v>1.016750860582197</v>
+        <v>1.014945747874162</v>
       </c>
       <c r="M8">
-        <v>1.027888041615165</v>
+        <v>1.029099906929865</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9757506013990083</v>
+        <v>0.9804731677123842</v>
       </c>
       <c r="D9">
-        <v>1.000510846444572</v>
+        <v>1.004803147875198</v>
       </c>
       <c r="E9">
-        <v>0.9853184742570175</v>
+        <v>0.9897155083801488</v>
       </c>
       <c r="F9">
-        <v>0.9957509230931375</v>
+        <v>1.002769639422704</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037837021378229</v>
+        <v>1.037054913869876</v>
       </c>
       <c r="J9">
-        <v>1.002189719541838</v>
+        <v>1.006734826339417</v>
       </c>
       <c r="K9">
-        <v>1.013595640955246</v>
+        <v>1.017818775077065</v>
       </c>
       <c r="L9">
-        <v>0.9986543265078641</v>
+        <v>1.002977677633995</v>
       </c>
       <c r="M9">
-        <v>1.00891331685082</v>
+        <v>1.015817940417091</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9585193461946956</v>
+        <v>0.9682434152941515</v>
       </c>
       <c r="D10">
-        <v>0.9870141717752475</v>
+        <v>0.9953230960331505</v>
       </c>
       <c r="E10">
-        <v>0.970332079729412</v>
+        <v>0.9796628889688846</v>
       </c>
       <c r="F10">
-        <v>0.9801754123234987</v>
+        <v>0.9917932390547752</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03129904082636</v>
+        <v>1.033698592738295</v>
       </c>
       <c r="J10">
-        <v>0.9884811955339048</v>
+        <v>0.997776215292091</v>
       </c>
       <c r="K10">
-        <v>1.001621915618491</v>
+        <v>1.009777310005244</v>
       </c>
       <c r="L10">
-        <v>0.9852584863332597</v>
+        <v>0.9944093081388904</v>
       </c>
       <c r="M10">
-        <v>0.9949120749759053</v>
+        <v>1.006312267088844</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.950564412509625</v>
+        <v>0.9627144684460743</v>
       </c>
       <c r="D11">
-        <v>0.9807961102559259</v>
+        <v>0.9910456444094216</v>
       </c>
       <c r="E11">
-        <v>0.9634217011423828</v>
+        <v>0.9751310228117485</v>
       </c>
       <c r="F11">
-        <v>0.9730036468896851</v>
+        <v>0.9868437252461242</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028263374916374</v>
+        <v>1.032167664333542</v>
       </c>
       <c r="J11">
-        <v>0.9821488738481607</v>
+        <v>0.9937250588866484</v>
       </c>
       <c r="K11">
-        <v>0.9960895041017462</v>
+        <v>1.006138425749499</v>
       </c>
       <c r="L11">
-        <v>0.9790680480825353</v>
+        <v>0.9905376811146036</v>
       </c>
       <c r="M11">
-        <v>0.9884532874626436</v>
+        <v>1.002018088950213</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9475250864188566</v>
+        <v>0.9606224749907375</v>
       </c>
       <c r="D12">
-        <v>0.978422729431208</v>
+        <v>0.9894286572039434</v>
       </c>
       <c r="E12">
-        <v>0.960783008307065</v>
+        <v>0.9734184039217136</v>
       </c>
       <c r="F12">
-        <v>0.9702667603193816</v>
+        <v>0.9849730918500412</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027101135838461</v>
+        <v>1.031586481585651</v>
       </c>
       <c r="J12">
-        <v>0.9797291659585464</v>
+        <v>0.9921921914398446</v>
       </c>
       <c r="K12">
-        <v>0.9939753295357633</v>
+        <v>1.004761229117276</v>
       </c>
       <c r="L12">
-        <v>0.9767021911652071</v>
+        <v>0.9890732210274094</v>
       </c>
       <c r="M12">
-        <v>0.9859866668373893</v>
+        <v>1.000393959595653</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.948181045698877</v>
+        <v>0.9610730040701964</v>
       </c>
       <c r="D13">
-        <v>0.9789348487013895</v>
+        <v>0.9897768191609201</v>
       </c>
       <c r="E13">
-        <v>0.9613524262473142</v>
+        <v>0.9737871330993845</v>
       </c>
       <c r="F13">
-        <v>0.9708572939156728</v>
+        <v>0.9853758500855381</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027352079768541</v>
+        <v>1.031711729237069</v>
       </c>
       <c r="J13">
-        <v>0.9802514076498949</v>
+        <v>0.9925223068016642</v>
       </c>
       <c r="K13">
-        <v>0.9944316326947257</v>
+        <v>1.005057833325594</v>
       </c>
       <c r="L13">
-        <v>0.9772128264071848</v>
+        <v>0.9893885824547242</v>
       </c>
       <c r="M13">
-        <v>0.9865189682208213</v>
+        <v>1.000743697076347</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9503149722066933</v>
+        <v>0.9625423449996922</v>
       </c>
       <c r="D14">
-        <v>0.9806012746785422</v>
+        <v>0.9909125718902208</v>
       </c>
       <c r="E14">
-        <v>0.9632051080225811</v>
+        <v>0.9749900693904541</v>
       </c>
       <c r="F14">
-        <v>0.9727789605624224</v>
+        <v>0.9866897705138635</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028168036284459</v>
+        <v>1.032119884535595</v>
       </c>
       <c r="J14">
-        <v>0.9819502914261208</v>
+        <v>0.9935989385260653</v>
       </c>
       <c r="K14">
-        <v>0.9959159984660017</v>
+        <v>1.006025119860208</v>
       </c>
       <c r="L14">
-        <v>0.9788738924073727</v>
+        <v>0.990417179341507</v>
       </c>
       <c r="M14">
-        <v>0.9882508257972761</v>
+        <v>1.001884445535479</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.951618211262269</v>
+        <v>0.9634424761641053</v>
       </c>
       <c r="D15">
-        <v>0.981619320474704</v>
+        <v>0.9916085449687422</v>
       </c>
       <c r="E15">
-        <v>0.964336796354752</v>
+        <v>0.9757272816248056</v>
       </c>
       <c r="F15">
-        <v>0.9739530013808564</v>
+        <v>0.9874949745243399</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02866605135886</v>
+        <v>1.032369674726325</v>
       </c>
       <c r="J15">
-        <v>0.9829878037663715</v>
+        <v>0.9942584931704046</v>
       </c>
       <c r="K15">
-        <v>0.9968224901560868</v>
+        <v>1.006617647521725</v>
       </c>
       <c r="L15">
-        <v>0.9798882621216701</v>
+        <v>0.9910473707343143</v>
       </c>
       <c r="M15">
-        <v>0.9893086634040357</v>
+        <v>1.002583370841333</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9590360513965802</v>
+        <v>0.9686051692585453</v>
       </c>
       <c r="D16">
-        <v>0.9874183557902825</v>
+        <v>0.995603157094458</v>
       </c>
       <c r="E16">
-        <v>0.9707811296208114</v>
+        <v>0.9799596851185426</v>
       </c>
       <c r="F16">
-        <v>0.9806416641972663</v>
+        <v>0.9921173622898308</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031495879363883</v>
+        <v>1.03379848846928</v>
       </c>
       <c r="J16">
-        <v>0.9888924476318038</v>
+        <v>0.998041267615481</v>
       </c>
       <c r="K16">
-        <v>1.001981195103539</v>
+        <v>1.010015341621295</v>
       </c>
       <c r="L16">
-        <v>0.9856604728239158</v>
+        <v>0.9946626792915594</v>
       </c>
       <c r="M16">
-        <v>0.9953317276266312</v>
+        <v>1.006593312745289</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9635502154250173</v>
+        <v>0.9717789473022237</v>
       </c>
       <c r="D17">
-        <v>0.9909509534771845</v>
+        <v>0.9980611885978385</v>
       </c>
       <c r="E17">
-        <v>0.9747051726995137</v>
+        <v>0.9825650357019455</v>
       </c>
       <c r="F17">
-        <v>0.9847171810772872</v>
+        <v>0.9949624614147319</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033213630346242</v>
+        <v>1.034673385008289</v>
       </c>
       <c r="J17">
-        <v>0.9924849381253721</v>
+        <v>1.000366547466961</v>
       </c>
       <c r="K17">
-        <v>1.005119527640058</v>
+        <v>1.012103297814239</v>
       </c>
       <c r="L17">
-        <v>0.9891717402943823</v>
+        <v>0.9968858285391128</v>
       </c>
       <c r="M17">
-        <v>0.998998586907577</v>
+        <v>1.00905939724005</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9661364136165153</v>
+        <v>0.9736078787855186</v>
       </c>
       <c r="D18">
-        <v>0.9929759604408771</v>
+        <v>0.9994784346580725</v>
       </c>
       <c r="E18">
-        <v>0.9769540246819755</v>
+        <v>0.9840675959373976</v>
       </c>
       <c r="F18">
-        <v>0.9870537897391869</v>
+        <v>0.996603177465876</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034196117391809</v>
+        <v>1.03517627199324</v>
       </c>
       <c r="J18">
-        <v>0.9945427448828273</v>
+        <v>1.001706411838011</v>
       </c>
       <c r="K18">
-        <v>1.006917049536576</v>
+        <v>1.013306177076392</v>
       </c>
       <c r="L18">
-        <v>0.9911827835838132</v>
+        <v>0.9981671298692804</v>
       </c>
       <c r="M18">
-        <v>1.00109979724496</v>
+        <v>1.010480803228646</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9670105773837414</v>
+        <v>0.9742278099166879</v>
       </c>
       <c r="D19">
-        <v>0.9936606201296749</v>
+        <v>0.9999589467402816</v>
       </c>
       <c r="E19">
-        <v>0.9777142787908528</v>
+        <v>0.9845770981210742</v>
       </c>
       <c r="F19">
-        <v>0.9878438699254766</v>
+        <v>0.9971595078927352</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03452792793075</v>
+        <v>1.035346508629358</v>
       </c>
       <c r="J19">
-        <v>0.995238239893233</v>
+        <v>1.00216054756941</v>
       </c>
       <c r="K19">
-        <v>1.007524547762088</v>
+        <v>1.01371384161988</v>
       </c>
       <c r="L19">
-        <v>0.9918624326726678</v>
+        <v>0.9986014642205009</v>
       </c>
       <c r="M19">
-        <v>1.001810095634549</v>
+        <v>1.010962644948779</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9630708011362403</v>
+        <v>0.9714407575206354</v>
       </c>
       <c r="D20">
-        <v>0.9905756606575794</v>
+        <v>0.997799185173621</v>
       </c>
       <c r="E20">
-        <v>0.9742883516706048</v>
+        <v>0.9822872909628318</v>
       </c>
       <c r="F20">
-        <v>0.9842841709742162</v>
+        <v>0.9946591698393799</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033031369336866</v>
+        <v>1.034580290859467</v>
       </c>
       <c r="J20">
-        <v>0.9921034434525902</v>
+        <v>1.000118781932097</v>
       </c>
       <c r="K20">
-        <v>1.004786274997763</v>
+        <v>1.01188084396252</v>
       </c>
       <c r="L20">
-        <v>0.9887988955871767</v>
+        <v>0.9966489154553686</v>
       </c>
       <c r="M20">
-        <v>0.9986091104153307</v>
+        <v>1.00879658593889</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9496890105871263</v>
+        <v>0.9621107459019221</v>
       </c>
       <c r="D21">
-        <v>0.980112380814955</v>
+        <v>0.9905789174164461</v>
       </c>
       <c r="E21">
-        <v>0.9626616011413228</v>
+        <v>0.9746366636031468</v>
       </c>
       <c r="F21">
-        <v>0.972215171217356</v>
+        <v>0.986303764203843</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027928749475074</v>
+        <v>1.032000046290123</v>
       </c>
       <c r="J21">
-        <v>0.9814519513994602</v>
+        <v>0.9932826920849295</v>
       </c>
       <c r="K21">
-        <v>0.9954805865721642</v>
+        <v>1.00574100063</v>
       </c>
       <c r="L21">
-        <v>0.9783866554534165</v>
+        <v>0.9901150292345043</v>
       </c>
       <c r="M21">
-        <v>0.9877427738784309</v>
+        <v>1.001549346319103</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.94077960198627</v>
+        <v>0.9560211122937938</v>
       </c>
       <c r="D22">
-        <v>0.9731601241489045</v>
+        <v>0.9858750609727405</v>
       </c>
       <c r="E22">
-        <v>0.9549299488957053</v>
+        <v>0.9696555875452808</v>
       </c>
       <c r="F22">
-        <v>0.9641989761095978</v>
+        <v>0.9808627584269749</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024517454102287</v>
+        <v>1.030304752342654</v>
       </c>
       <c r="J22">
-        <v>0.9743585397344237</v>
+        <v>0.9888207415108812</v>
       </c>
       <c r="K22">
-        <v>0.989282717682551</v>
+        <v>1.001731626711611</v>
       </c>
       <c r="L22">
-        <v>0.9714504373644722</v>
+        <v>0.9858531313824624</v>
       </c>
       <c r="M22">
-        <v>0.9805146595432351</v>
+        <v>0.9968231055388114</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9455536806424204</v>
+        <v>0.9592717164614449</v>
       </c>
       <c r="D23">
-        <v>0.976883997561367</v>
+        <v>0.9883850462103801</v>
       </c>
       <c r="E23">
-        <v>0.9590719455088121</v>
+        <v>0.972313218759276</v>
       </c>
       <c r="F23">
-        <v>0.9684924895982541</v>
+        <v>0.9837658849168326</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026346618757285</v>
+        <v>1.031210696490494</v>
       </c>
       <c r="J23">
-        <v>0.9781596034030743</v>
+        <v>0.9912024595596393</v>
       </c>
       <c r="K23">
-        <v>0.9926039295610973</v>
+        <v>1.003871924761058</v>
       </c>
       <c r="L23">
-        <v>0.975167459156921</v>
+        <v>0.9881277949822385</v>
       </c>
       <c r="M23">
-        <v>0.9843870862607399</v>
+        <v>0.9993455023729213</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9632875717969255</v>
+        <v>0.9715936395366613</v>
       </c>
       <c r="D24">
-        <v>0.9907453484708465</v>
+        <v>0.9979176240128164</v>
       </c>
       <c r="E24">
-        <v>0.9744768180561194</v>
+        <v>0.9824128445122687</v>
       </c>
       <c r="F24">
-        <v>0.9844799543340473</v>
+        <v>0.9947962720959198</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03311378505386</v>
+        <v>1.034622378980468</v>
       </c>
       <c r="J24">
-        <v>0.9922759401761057</v>
+        <v>1.000230787126044</v>
       </c>
       <c r="K24">
-        <v>1.00493695903416</v>
+        <v>1.011981407460131</v>
       </c>
       <c r="L24">
-        <v>0.9889674818833855</v>
+        <v>0.9967560137889035</v>
       </c>
       <c r="M24">
-        <v>0.9987852137020882</v>
+        <v>1.008915391476921</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9820506121446241</v>
+        <v>0.9850268860585061</v>
       </c>
       <c r="D25">
-        <v>1.005453802402038</v>
+        <v>1.008338898723981</v>
       </c>
       <c r="E25">
-        <v>0.9908029086627463</v>
+        <v>0.9934684342419637</v>
       </c>
       <c r="F25">
-        <v>1.001459090745408</v>
+        <v>1.006866442720639</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040211896892278</v>
+        <v>1.038292419692257</v>
       </c>
       <c r="J25">
-        <v>1.007197521015285</v>
+        <v>1.01006888023047</v>
       </c>
       <c r="K25">
-        <v>1.017968040978214</v>
+        <v>1.020809128684568</v>
       </c>
       <c r="L25">
-        <v>1.003545695413869</v>
+        <v>1.006168997684887</v>
       </c>
       <c r="M25">
-        <v>1.014034798357676</v>
+        <v>1.019359093013784</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_50/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9951435653302608</v>
+        <v>0.9661727331976341</v>
       </c>
       <c r="D2">
-        <v>1.016203819569771</v>
+        <v>0.991120707439871</v>
       </c>
       <c r="E2">
-        <v>1.001824973230838</v>
+        <v>0.9766899215397828</v>
       </c>
       <c r="F2">
-        <v>1.015986578945344</v>
+        <v>0.9411386355956612</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041013596660137</v>
+        <v>1.030725202949807</v>
       </c>
       <c r="J2">
-        <v>1.01747050817505</v>
+        <v>0.9894145323126502</v>
       </c>
       <c r="K2">
-        <v>1.02744193240678</v>
+        <v>1.002705146839969</v>
       </c>
       <c r="L2">
-        <v>1.01325894169629</v>
+        <v>0.9884838470956621</v>
       </c>
       <c r="M2">
-        <v>1.027227599017659</v>
+        <v>0.9534838355527125</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.00218464349678</v>
+        <v>0.9749708632156578</v>
       </c>
       <c r="D3">
-        <v>1.021684513659598</v>
+        <v>0.9973975292070195</v>
       </c>
       <c r="E3">
-        <v>1.00765633028739</v>
+        <v>0.9840281976470401</v>
       </c>
       <c r="F3">
-        <v>1.022348946250985</v>
+        <v>0.9530321131303189</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042881299552037</v>
+        <v>1.032908961772863</v>
       </c>
       <c r="J3">
-        <v>1.022615929581925</v>
+        <v>0.9961679094754833</v>
       </c>
       <c r="K3">
-        <v>1.032047256058958</v>
+        <v>1.008063817792775</v>
       </c>
       <c r="L3">
-        <v>1.018192175345854</v>
+        <v>0.994869603752596</v>
       </c>
       <c r="M3">
-        <v>1.032703636163689</v>
+        <v>0.9643034524724017</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006611884877802</v>
+        <v>0.9804455940301073</v>
       </c>
       <c r="D4">
-        <v>1.025132968905003</v>
+        <v>1.001306490242138</v>
       </c>
       <c r="E4">
-        <v>1.011329348995717</v>
+        <v>0.9886016822356039</v>
       </c>
       <c r="F4">
-        <v>1.02635559945104</v>
+        <v>0.9604149386377151</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044043086222416</v>
+        <v>1.034253117228625</v>
       </c>
       <c r="J4">
-        <v>1.025847956947156</v>
+        <v>1.000363084270066</v>
       </c>
       <c r="K4">
-        <v>1.034937236561891</v>
+        <v>1.011389172612277</v>
       </c>
       <c r="L4">
-        <v>1.021292935041243</v>
+        <v>0.9988396498720992</v>
       </c>
       <c r="M4">
-        <v>1.036146010466206</v>
+        <v>0.9710158263635746</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008443897980565</v>
+        <v>0.9826987172683892</v>
       </c>
       <c r="D5">
-        <v>1.026560406603172</v>
+        <v>1.002915782565161</v>
       </c>
       <c r="E5">
-        <v>1.012850710800891</v>
+        <v>0.9904854817864414</v>
       </c>
       <c r="F5">
-        <v>1.028014954502412</v>
+        <v>0.9634498300631544</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044520756078121</v>
+        <v>1.034802689149132</v>
       </c>
       <c r="J5">
-        <v>1.02718453039183</v>
+        <v>1.002087840165738</v>
       </c>
       <c r="K5">
-        <v>1.036131663235453</v>
+        <v>1.012755423311369</v>
       </c>
       <c r="L5">
-        <v>1.022575699887937</v>
+        <v>1.000472590087199</v>
       </c>
       <c r="M5">
-        <v>1.037570196338155</v>
+        <v>0.9737741000243814</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008749834015786</v>
+        <v>0.9830742873511236</v>
       </c>
       <c r="D6">
-        <v>1.026798804204298</v>
+        <v>1.003184061049035</v>
       </c>
       <c r="E6">
-        <v>1.013104852527131</v>
+        <v>0.9907995792969652</v>
       </c>
       <c r="F6">
-        <v>1.028292136269684</v>
+        <v>0.9639555273799049</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044600341139244</v>
+        <v>1.034894081489486</v>
       </c>
       <c r="J6">
-        <v>1.027407678577625</v>
+        <v>1.002375232250951</v>
       </c>
       <c r="K6">
-        <v>1.036331037517327</v>
+        <v>1.012983023660314</v>
       </c>
       <c r="L6">
-        <v>1.022789892215645</v>
+        <v>1.000744725806023</v>
       </c>
       <c r="M6">
-        <v>1.037808008233031</v>
+        <v>0.9742336432622662</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006636476989099</v>
+        <v>0.9804758860765534</v>
       </c>
       <c r="D7">
-        <v>1.02515212853753</v>
+        <v>1.001328124342152</v>
       </c>
       <c r="E7">
-        <v>1.011349765444323</v>
+        <v>0.9886270028106485</v>
       </c>
       <c r="F7">
-        <v>1.026377868528214</v>
+        <v>0.9604557540486834</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044049510528549</v>
+        <v>1.034260520372688</v>
       </c>
       <c r="J7">
-        <v>1.025865901970481</v>
+        <v>1.000386279757733</v>
       </c>
       <c r="K7">
-        <v>1.034953275894391</v>
+        <v>1.011407550373444</v>
       </c>
       <c r="L7">
-        <v>1.021310155748878</v>
+        <v>0.9988616076744969</v>
       </c>
       <c r="M7">
-        <v>1.036165129331224</v>
+        <v>0.9710529257404188</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9975508289398444</v>
+        <v>0.9691937255868062</v>
       </c>
       <c r="D8">
-        <v>1.018077041522567</v>
+        <v>0.9932751721674707</v>
       </c>
       <c r="E8">
-        <v>1.003817236394765</v>
+        <v>0.979208038317581</v>
       </c>
       <c r="F8">
-        <v>1.018160437283289</v>
+        <v>0.9452268397367083</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041654752898932</v>
+        <v>1.031478104875829</v>
       </c>
       <c r="J8">
-        <v>1.019230315771261</v>
+        <v>0.9917349225612312</v>
       </c>
       <c r="K8">
-        <v>1.029017591046545</v>
+        <v>1.004547012704242</v>
       </c>
       <c r="L8">
-        <v>1.014945747874162</v>
+        <v>0.9906772153757116</v>
       </c>
       <c r="M8">
-        <v>1.029099906929865</v>
+        <v>0.957203678810451</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9804731677123842</v>
+        <v>0.9474425539237432</v>
       </c>
       <c r="D9">
-        <v>1.004803147875198</v>
+        <v>0.9777861795691771</v>
       </c>
       <c r="E9">
-        <v>0.9897155083801488</v>
+        <v>0.961115743775977</v>
       </c>
       <c r="F9">
-        <v>1.002769639422704</v>
+        <v>0.9156698248132153</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037054913869876</v>
+        <v>1.025996266576896</v>
       </c>
       <c r="J9">
-        <v>1.006734826339417</v>
+        <v>0.974998248990457</v>
       </c>
       <c r="K9">
-        <v>1.017818775077065</v>
+        <v>0.9912502444743345</v>
       </c>
       <c r="L9">
-        <v>1.002977677633995</v>
+        <v>0.9748728531769612</v>
       </c>
       <c r="M9">
-        <v>1.015817940417091</v>
+        <v>0.9302972911234478</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9682434152941515</v>
+        <v>0.9313478608483957</v>
       </c>
       <c r="D10">
-        <v>0.9953230960331505</v>
+        <v>0.9663676852083576</v>
       </c>
       <c r="E10">
-        <v>0.9796628889688846</v>
+        <v>0.9477868004952877</v>
       </c>
       <c r="F10">
-        <v>0.9917932390547752</v>
+        <v>0.8935778321656858</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033698592738295</v>
+        <v>1.02186598753073</v>
       </c>
       <c r="J10">
-        <v>0.997776215292091</v>
+        <v>0.9625773972495963</v>
       </c>
       <c r="K10">
-        <v>1.009777310005244</v>
+        <v>0.9813719452952716</v>
       </c>
       <c r="L10">
-        <v>0.9944093081388904</v>
+        <v>0.9631674253183313</v>
       </c>
       <c r="M10">
-        <v>1.006312267088844</v>
+        <v>0.9101769501094862</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9627144684460743</v>
+        <v>0.9239027338698909</v>
       </c>
       <c r="D11">
-        <v>0.9910456444094216</v>
+        <v>0.9611005919432408</v>
       </c>
       <c r="E11">
-        <v>0.9751310228117485</v>
+        <v>0.9416383969432128</v>
       </c>
       <c r="F11">
-        <v>0.9868437252461242</v>
+        <v>0.8832791970505482</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032167664333542</v>
+        <v>1.019939568367107</v>
       </c>
       <c r="J11">
-        <v>0.9937250588866484</v>
+        <v>0.9568236517300661</v>
       </c>
       <c r="K11">
-        <v>1.006138425749499</v>
+        <v>0.9767953689504352</v>
       </c>
       <c r="L11">
-        <v>0.9905376811146036</v>
+        <v>0.957751755856101</v>
       </c>
       <c r="M11">
-        <v>1.002018088950213</v>
+        <v>0.9007980200008219</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9606224749907375</v>
+        <v>0.9210550988578736</v>
       </c>
       <c r="D12">
-        <v>0.9894286572039434</v>
+        <v>0.9590887453878566</v>
       </c>
       <c r="E12">
-        <v>0.9734184039217136</v>
+        <v>0.9392896925089881</v>
       </c>
       <c r="F12">
-        <v>0.9849730918500412</v>
+        <v>0.8793252313972686</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031586481585651</v>
+        <v>1.019200547483807</v>
       </c>
       <c r="J12">
-        <v>0.9921921914398446</v>
+        <v>0.954621779229799</v>
       </c>
       <c r="K12">
-        <v>1.004761229117276</v>
+        <v>0.9750440787712495</v>
       </c>
       <c r="L12">
-        <v>0.9890732210274094</v>
+        <v>0.9556803775589413</v>
       </c>
       <c r="M12">
-        <v>1.000393959595653</v>
+        <v>0.8971975677217692</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9610730040701964</v>
+        <v>0.9216698433486473</v>
       </c>
       <c r="D13">
-        <v>0.9897768191609201</v>
+        <v>0.9595229291614338</v>
       </c>
       <c r="E13">
-        <v>0.9737871330993845</v>
+        <v>0.9397965889551647</v>
       </c>
       <c r="F13">
-        <v>0.9853758500855381</v>
+        <v>0.8801795379060676</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031711729237069</v>
+        <v>1.019360182437889</v>
       </c>
       <c r="J13">
-        <v>0.9925223068016642</v>
+        <v>0.9550971688046914</v>
       </c>
       <c r="K13">
-        <v>1.005057833325594</v>
+        <v>0.9754221787072421</v>
       </c>
       <c r="L13">
-        <v>0.9893885824547242</v>
+        <v>0.9561275406444365</v>
       </c>
       <c r="M13">
-        <v>1.000743697076347</v>
+        <v>0.8979754684486195</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9625423449996922</v>
+        <v>0.9236690944228717</v>
       </c>
       <c r="D14">
-        <v>0.9909125718902208</v>
+        <v>0.960935468103908</v>
       </c>
       <c r="E14">
-        <v>0.9749900693904541</v>
+        <v>0.9414456312290632</v>
       </c>
       <c r="F14">
-        <v>0.9866897705138635</v>
+        <v>0.8829551079828885</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032119884535595</v>
+        <v>1.019878977338204</v>
       </c>
       <c r="J14">
-        <v>0.9935989385260653</v>
+        <v>0.9566430182710219</v>
       </c>
       <c r="K14">
-        <v>1.006025119860208</v>
+        <v>0.9766516964078631</v>
       </c>
       <c r="L14">
-        <v>0.990417179341507</v>
+        <v>0.9575818043275554</v>
       </c>
       <c r="M14">
-        <v>1.001884445535479</v>
+        <v>0.9005028964377824</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9634424761641053</v>
+        <v>0.9248896484748483</v>
       </c>
       <c r="D15">
-        <v>0.9916085449687422</v>
+        <v>0.9617982037436384</v>
       </c>
       <c r="E15">
-        <v>0.9757272816248056</v>
+        <v>0.9424527789496949</v>
       </c>
       <c r="F15">
-        <v>0.9874949745243399</v>
+        <v>0.8846475560600195</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032369674726325</v>
+        <v>1.020195422655813</v>
       </c>
       <c r="J15">
-        <v>0.9942584931704046</v>
+        <v>0.9575866174040584</v>
       </c>
       <c r="K15">
-        <v>1.006617647521725</v>
+        <v>0.9774022230204725</v>
       </c>
       <c r="L15">
-        <v>0.9910473707343143</v>
+        <v>0.958469648790879</v>
       </c>
       <c r="M15">
-        <v>1.002583370841333</v>
+        <v>0.9020441004274501</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9686051692585453</v>
+        <v>0.9318310828469618</v>
       </c>
       <c r="D16">
-        <v>0.995603157094458</v>
+        <v>0.9667098874417434</v>
       </c>
       <c r="E16">
-        <v>0.9799596851185426</v>
+        <v>0.9481862426296639</v>
       </c>
       <c r="F16">
-        <v>0.9921173622898308</v>
+        <v>0.8942444018323166</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03379848846928</v>
+        <v>1.021990710752437</v>
       </c>
       <c r="J16">
-        <v>0.998041267615481</v>
+        <v>0.9629506798904098</v>
       </c>
       <c r="K16">
-        <v>1.010015341621295</v>
+        <v>0.9816688596859179</v>
       </c>
       <c r="L16">
-        <v>0.9946626792915594</v>
+        <v>0.9635189204614413</v>
       </c>
       <c r="M16">
-        <v>1.006593312745289</v>
+        <v>0.9107840295459543</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9717789473022237</v>
+        <v>0.9360509964778132</v>
       </c>
       <c r="D17">
-        <v>0.9980611885978385</v>
+        <v>0.969700005045126</v>
       </c>
       <c r="E17">
-        <v>0.9825650357019455</v>
+        <v>0.9516764856460654</v>
       </c>
       <c r="F17">
-        <v>0.9949624614147319</v>
+        <v>0.9000563584933012</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034673385008289</v>
+        <v>1.023078157148547</v>
       </c>
       <c r="J17">
-        <v>1.000366547466961</v>
+        <v>0.9662096145672814</v>
       </c>
       <c r="K17">
-        <v>1.012103297814239</v>
+        <v>0.9842610126798641</v>
       </c>
       <c r="L17">
-        <v>0.9968858285391128</v>
+        <v>0.9665883936933956</v>
       </c>
       <c r="M17">
-        <v>1.00905939724005</v>
+        <v>0.9160773724032724</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9736078787855186</v>
+        <v>0.9384673021917274</v>
       </c>
       <c r="D18">
-        <v>0.9994784346580725</v>
+        <v>0.9714134812071075</v>
       </c>
       <c r="E18">
-        <v>0.9840675959373976</v>
+        <v>0.9536765665448516</v>
       </c>
       <c r="F18">
-        <v>0.996603177465876</v>
+        <v>0.9033771399297738</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03517627199324</v>
+        <v>1.02369934560559</v>
       </c>
       <c r="J18">
-        <v>1.001706411838011</v>
+        <v>0.96807491623645</v>
       </c>
       <c r="K18">
-        <v>1.013306177076392</v>
+        <v>0.9857446000258169</v>
       </c>
       <c r="L18">
-        <v>0.9981671298692804</v>
+        <v>0.9683458632329465</v>
       </c>
       <c r="M18">
-        <v>1.010480803228646</v>
+        <v>0.9191018626255573</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9742278099166879</v>
+        <v>0.9392838373024757</v>
       </c>
       <c r="D19">
-        <v>0.9999589467402816</v>
+        <v>0.9719927266660472</v>
       </c>
       <c r="E19">
-        <v>0.9845770981210742</v>
+        <v>0.9543527069977786</v>
       </c>
       <c r="F19">
-        <v>0.9971595078927352</v>
+        <v>0.9044981896503342</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035346508629358</v>
+        <v>1.02390900627163</v>
       </c>
       <c r="J19">
-        <v>1.00216054756941</v>
+        <v>0.9687051231498877</v>
       </c>
       <c r="K19">
-        <v>1.01371384161988</v>
+        <v>0.9862458245850267</v>
       </c>
       <c r="L19">
-        <v>0.9986014642205009</v>
+        <v>0.9689397385446294</v>
       </c>
       <c r="M19">
-        <v>1.010962644948779</v>
+        <v>0.9201228854213199</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9714407575206354</v>
+        <v>0.9356029740445709</v>
       </c>
       <c r="D20">
-        <v>0.997799185173621</v>
+        <v>0.9693824049172071</v>
       </c>
       <c r="E20">
-        <v>0.9822872909628318</v>
+        <v>0.951305764305762</v>
       </c>
       <c r="F20">
-        <v>0.9946591698393799</v>
+        <v>0.8994400715351151</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034580290859467</v>
+        <v>1.022962857350667</v>
       </c>
       <c r="J20">
-        <v>1.000118781932097</v>
+        <v>0.9658636958419365</v>
       </c>
       <c r="K20">
-        <v>1.01188084396252</v>
+        <v>0.9839858755385437</v>
       </c>
       <c r="L20">
-        <v>0.9966489154553686</v>
+        <v>0.9662625211161395</v>
       </c>
       <c r="M20">
-        <v>1.00879658593889</v>
+        <v>0.9155160730280797</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9621107459019221</v>
+        <v>0.9230827314117613</v>
       </c>
       <c r="D21">
-        <v>0.9905789174164461</v>
+        <v>0.9605211036883287</v>
       </c>
       <c r="E21">
-        <v>0.9746366636031468</v>
+        <v>0.9409618973841738</v>
       </c>
       <c r="F21">
-        <v>0.986303764203843</v>
+        <v>0.8821414935836851</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032000046290123</v>
+        <v>1.019726877933782</v>
       </c>
       <c r="J21">
-        <v>0.9932826920849295</v>
+        <v>0.9561896654785494</v>
       </c>
       <c r="K21">
-        <v>1.00574100063</v>
+        <v>0.9762911101777706</v>
       </c>
       <c r="L21">
-        <v>0.9901150292345043</v>
+        <v>0.9571552793372404</v>
       </c>
       <c r="M21">
-        <v>1.001549346319103</v>
+        <v>0.8997620067510773</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9560211122937938</v>
+        <v>0.9147280279107902</v>
       </c>
       <c r="D22">
-        <v>0.9858750609727405</v>
+        <v>0.9546243638849593</v>
       </c>
       <c r="E22">
-        <v>0.9696555875452808</v>
+        <v>0.9340771069231675</v>
       </c>
       <c r="F22">
-        <v>0.9808627584269749</v>
+        <v>0.8705082779796942</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030304752342654</v>
+        <v>1.017554687626799</v>
       </c>
       <c r="J22">
-        <v>0.9888207415108812</v>
+        <v>0.9497274018514584</v>
       </c>
       <c r="K22">
-        <v>1.001731626711611</v>
+        <v>0.9711516946889316</v>
       </c>
       <c r="L22">
-        <v>0.9858531313824624</v>
+        <v>0.9510782921287797</v>
       </c>
       <c r="M22">
-        <v>0.9968231055388114</v>
+        <v>0.8891701182415126</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9592717164614449</v>
+        <v>0.9192070187556268</v>
       </c>
       <c r="D23">
-        <v>0.9883850462103801</v>
+        <v>0.9577839195740235</v>
       </c>
       <c r="E23">
-        <v>0.972313218759276</v>
+        <v>0.9377662953252481</v>
       </c>
       <c r="F23">
-        <v>0.9837658849168326</v>
+        <v>0.876754500687945</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031210696490494</v>
+        <v>1.018720336682166</v>
       </c>
       <c r="J23">
-        <v>0.9912024595596393</v>
+        <v>0.9531924688885943</v>
       </c>
       <c r="K23">
-        <v>1.003871924761058</v>
+        <v>0.9739073114042592</v>
       </c>
       <c r="L23">
-        <v>0.9881277949822385</v>
+        <v>0.9543361075475442</v>
       </c>
       <c r="M23">
-        <v>0.9993455023729213</v>
+        <v>0.8948568430519629</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9715936395366613</v>
+        <v>0.9358055546832784</v>
       </c>
       <c r="D24">
-        <v>0.9979176240128164</v>
+        <v>0.9695260088277928</v>
       </c>
       <c r="E24">
-        <v>0.9824128445122687</v>
+        <v>0.9514733870961106</v>
       </c>
       <c r="F24">
-        <v>0.9947962720959198</v>
+        <v>0.8997187576862484</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034622378980468</v>
+        <v>1.023014996650746</v>
       </c>
       <c r="J24">
-        <v>1.000230787126044</v>
+        <v>0.9660201109701898</v>
       </c>
       <c r="K24">
-        <v>1.011981407460131</v>
+        <v>0.9841102853778263</v>
       </c>
       <c r="L24">
-        <v>0.9967560137889035</v>
+        <v>0.9664098700274178</v>
       </c>
       <c r="M24">
-        <v>1.008915391476921</v>
+        <v>0.9157698936188454</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9850268860585061</v>
+        <v>0.9533184412815043</v>
       </c>
       <c r="D25">
-        <v>1.008338898723981</v>
+        <v>0.9819646185840322</v>
       </c>
       <c r="E25">
-        <v>0.9934684342419637</v>
+        <v>0.9659944086154071</v>
       </c>
       <c r="F25">
-        <v>1.006866442720639</v>
+        <v>0.9236844618217287</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038292419692257</v>
+        <v>1.027490041256281</v>
       </c>
       <c r="J25">
-        <v>1.01006888023047</v>
+        <v>0.9795258485867433</v>
       </c>
       <c r="K25">
-        <v>1.020809128684568</v>
+        <v>0.9948495151603191</v>
       </c>
       <c r="L25">
-        <v>1.006168997684887</v>
+        <v>0.9791445998866286</v>
       </c>
       <c r="M25">
-        <v>1.019359093013784</v>
+        <v>0.9375955165350296</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_50/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9661727331976341</v>
+        <v>1.024525819036797</v>
       </c>
       <c r="D2">
-        <v>0.991120707439871</v>
+        <v>1.027687710516158</v>
       </c>
       <c r="E2">
-        <v>0.9766899215397828</v>
+        <v>1.024933552443948</v>
       </c>
       <c r="F2">
-        <v>0.9411386355956612</v>
+        <v>1.023009657280859</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030725202949807</v>
+        <v>1.028540493957157</v>
       </c>
       <c r="J2">
-        <v>0.9894145323126502</v>
+        <v>1.029699942307616</v>
       </c>
       <c r="K2">
-        <v>1.002705146839969</v>
+        <v>1.03050671189918</v>
       </c>
       <c r="L2">
-        <v>0.9884838470956621</v>
+        <v>1.027760601293353</v>
       </c>
       <c r="M2">
-        <v>0.9534838355527125</v>
+        <v>1.025842355591445</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9749708632156578</v>
+        <v>1.026161437136498</v>
       </c>
       <c r="D3">
-        <v>0.9973975292070195</v>
+        <v>1.028856640750343</v>
       </c>
       <c r="E3">
-        <v>0.9840281976470401</v>
+        <v>1.026344343702474</v>
       </c>
       <c r="F3">
-        <v>0.9530321131303189</v>
+        <v>1.025292674300836</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032908961772863</v>
+        <v>1.028848906323447</v>
       </c>
       <c r="J3">
-        <v>0.9961679094754833</v>
+        <v>1.030970959808858</v>
       </c>
       <c r="K3">
-        <v>1.008063817792775</v>
+        <v>1.031482444217269</v>
       </c>
       <c r="L3">
-        <v>0.994869603752596</v>
+        <v>1.028976949128002</v>
       </c>
       <c r="M3">
-        <v>0.9643034524724017</v>
+        <v>1.027928137798961</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9804455940301073</v>
+        <v>1.027216559348742</v>
       </c>
       <c r="D4">
-        <v>1.001306490242138</v>
+        <v>1.029610172946366</v>
       </c>
       <c r="E4">
-        <v>0.9886016822356039</v>
+        <v>1.027254609729758</v>
       </c>
       <c r="F4">
-        <v>0.9604149386377151</v>
+        <v>1.026766015625233</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034253117228625</v>
+        <v>1.02904592541324</v>
       </c>
       <c r="J4">
-        <v>1.000363084270066</v>
+        <v>1.03178989909272</v>
       </c>
       <c r="K4">
-        <v>1.011389172612277</v>
+        <v>1.032110404993197</v>
       </c>
       <c r="L4">
-        <v>0.9988396498720992</v>
+        <v>1.029760893682251</v>
       </c>
       <c r="M4">
-        <v>0.9710158263635746</v>
+        <v>1.029273558623409</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9826987172683892</v>
+        <v>1.027659374512954</v>
       </c>
       <c r="D5">
-        <v>1.002915782565161</v>
+        <v>1.029926286923337</v>
       </c>
       <c r="E5">
-        <v>0.9904854817864414</v>
+        <v>1.027636672956733</v>
       </c>
       <c r="F5">
-        <v>0.9634498300631544</v>
+        <v>1.027384496626049</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034802689149132</v>
+        <v>1.029128146644078</v>
       </c>
       <c r="J5">
-        <v>1.002087840165738</v>
+        <v>1.03213335714089</v>
       </c>
       <c r="K5">
-        <v>1.012755423311369</v>
+        <v>1.032373594298924</v>
       </c>
       <c r="L5">
-        <v>1.000472590087199</v>
+        <v>1.03008972997923</v>
       </c>
       <c r="M5">
-        <v>0.9737741000243814</v>
+        <v>1.029838188597965</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9830742873511236</v>
+        <v>1.027733681114168</v>
       </c>
       <c r="D6">
-        <v>1.003184061049035</v>
+        <v>1.029979324790005</v>
       </c>
       <c r="E6">
-        <v>0.9907995792969652</v>
+        <v>1.027700787484404</v>
       </c>
       <c r="F6">
-        <v>0.9639555273799049</v>
+        <v>1.02748828964073</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034894081489486</v>
+        <v>1.029141916539691</v>
       </c>
       <c r="J6">
-        <v>1.002375232250951</v>
+        <v>1.032190977296248</v>
       </c>
       <c r="K6">
-        <v>1.012983023660314</v>
+        <v>1.032417737981618</v>
       </c>
       <c r="L6">
-        <v>1.000744725806023</v>
+        <v>1.030144900329333</v>
       </c>
       <c r="M6">
-        <v>0.9742336432622662</v>
+        <v>1.02993293542691</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9804758860765534</v>
+        <v>1.027222479224694</v>
       </c>
       <c r="D7">
-        <v>1.001328124342152</v>
+        <v>1.02961439949967</v>
       </c>
       <c r="E7">
-        <v>0.9886270028106485</v>
+        <v>1.027259717267628</v>
       </c>
       <c r="F7">
-        <v>0.9604557540486834</v>
+        <v>1.026774283343722</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034260520372688</v>
+        <v>1.02904702643206</v>
       </c>
       <c r="J7">
-        <v>1.000386279757733</v>
+        <v>1.031794491616827</v>
       </c>
       <c r="K7">
-        <v>1.011407550373444</v>
+        <v>1.032113924893461</v>
       </c>
       <c r="L7">
-        <v>0.9988616076744969</v>
+        <v>1.029765290477369</v>
       </c>
       <c r="M7">
-        <v>0.9710529257404188</v>
+        <v>1.029281107072734</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9691937255868062</v>
+        <v>1.025079262460586</v>
       </c>
       <c r="D8">
-        <v>0.9932751721674707</v>
+        <v>1.02808335076466</v>
       </c>
       <c r="E8">
-        <v>0.979208038317581</v>
+        <v>1.025410883861994</v>
       </c>
       <c r="F8">
-        <v>0.9452268397367083</v>
+        <v>1.023782042605536</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031478104875829</v>
+        <v>1.028645252316325</v>
       </c>
       <c r="J8">
-        <v>0.9917349225612312</v>
+        <v>1.030130219620264</v>
       </c>
       <c r="K8">
-        <v>1.004547012704242</v>
+        <v>1.030837175534647</v>
       </c>
       <c r="L8">
-        <v>0.9906772153757116</v>
+        <v>1.028172323415551</v>
       </c>
       <c r="M8">
-        <v>0.957203678810451</v>
+        <v>1.026548144470262</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9474425539237432</v>
+        <v>1.021277184534424</v>
       </c>
       <c r="D9">
-        <v>0.9777861795691771</v>
+        <v>1.025363220781516</v>
       </c>
       <c r="E9">
-        <v>0.961115743775977</v>
+        <v>1.022132456322145</v>
       </c>
       <c r="F9">
-        <v>0.9156698248132153</v>
+        <v>1.018478039050548</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025996266576896</v>
+        <v>1.0279176286784</v>
       </c>
       <c r="J9">
-        <v>0.974998248990457</v>
+        <v>1.027170236782255</v>
       </c>
       <c r="K9">
-        <v>0.9912502444743345</v>
+        <v>1.028560892051068</v>
       </c>
       <c r="L9">
-        <v>0.9748728531769612</v>
+        <v>1.02534094549041</v>
       </c>
       <c r="M9">
-        <v>0.9302972911234478</v>
+        <v>1.021698855559106</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9313478608483957</v>
+        <v>1.018724362017634</v>
       </c>
       <c r="D10">
-        <v>0.9663676852083576</v>
+        <v>1.023534227281019</v>
       </c>
       <c r="E10">
-        <v>0.9477868004952877</v>
+        <v>1.019932240805937</v>
       </c>
       <c r="F10">
-        <v>0.8935778321656858</v>
+        <v>1.01491924672758</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02186598753073</v>
+        <v>1.027419111115213</v>
       </c>
       <c r="J10">
-        <v>0.9625773972495963</v>
+        <v>1.025177751421224</v>
       </c>
       <c r="K10">
-        <v>0.9813719452952716</v>
+        <v>1.027024963942713</v>
       </c>
       <c r="L10">
-        <v>0.9631674253183313</v>
+        <v>1.023436247308853</v>
       </c>
       <c r="M10">
-        <v>0.9101769501094862</v>
+        <v>1.018441894768158</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9239027338698909</v>
+        <v>1.017614445821065</v>
       </c>
       <c r="D11">
-        <v>0.9611005919432408</v>
+        <v>1.022738417258138</v>
       </c>
       <c r="E11">
-        <v>0.9416383969432128</v>
+        <v>1.018975885074752</v>
       </c>
       <c r="F11">
-        <v>0.8832791970505482</v>
+        <v>1.013372452707878</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.019939568367107</v>
+        <v>1.027200009760929</v>
       </c>
       <c r="J11">
-        <v>0.9568236517300661</v>
+        <v>1.024310259714223</v>
       </c>
       <c r="K11">
-        <v>0.9767953689504352</v>
+        <v>1.026355390141623</v>
       </c>
       <c r="L11">
-        <v>0.957751755856101</v>
+        <v>1.022607268868115</v>
       </c>
       <c r="M11">
-        <v>0.9007980200008219</v>
+        <v>1.017025518474922</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9210550988578736</v>
+        <v>1.017201474107578</v>
       </c>
       <c r="D12">
-        <v>0.9590887453878566</v>
+        <v>1.022442228136365</v>
       </c>
       <c r="E12">
-        <v>0.9392896925089881</v>
+        <v>1.018620088630881</v>
       </c>
       <c r="F12">
-        <v>0.8793252313972686</v>
+        <v>1.012796997185136</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.019200547483807</v>
+        <v>1.027118134505714</v>
       </c>
       <c r="J12">
-        <v>0.954621779229799</v>
+        <v>1.023987308178796</v>
       </c>
       <c r="K12">
-        <v>0.9750440787712495</v>
+        <v>1.026105991807054</v>
       </c>
       <c r="L12">
-        <v>0.9556803775589413</v>
+        <v>1.022298699342182</v>
       </c>
       <c r="M12">
-        <v>0.8971975677217692</v>
+        <v>1.016498467029757</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9216698433486473</v>
+        <v>1.017290089904134</v>
       </c>
       <c r="D13">
-        <v>0.9595229291614338</v>
+        <v>1.022505788600579</v>
       </c>
       <c r="E13">
-        <v>0.9397965889551647</v>
+        <v>1.018696433916071</v>
       </c>
       <c r="F13">
-        <v>0.8801795379060676</v>
+        <v>1.012920475957933</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.019360182437889</v>
+        <v>1.027135719329091</v>
       </c>
       <c r="J13">
-        <v>0.9550971688046914</v>
+        <v>1.024056615505821</v>
       </c>
       <c r="K13">
-        <v>0.9754221787072421</v>
+        <v>1.026159519956526</v>
       </c>
       <c r="L13">
-        <v>0.9561275406444365</v>
+        <v>1.022364918199222</v>
       </c>
       <c r="M13">
-        <v>0.8979754684486195</v>
+        <v>1.016611564677435</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9236690944228717</v>
+        <v>1.017580323830693</v>
       </c>
       <c r="D14">
-        <v>0.960935468103908</v>
+        <v>1.022713946277783</v>
       </c>
       <c r="E14">
-        <v>0.9414456312290632</v>
+        <v>1.018946486410964</v>
       </c>
       <c r="F14">
-        <v>0.8829551079828885</v>
+        <v>1.013324904082716</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.019878977338204</v>
+        <v>1.0271932519745</v>
       </c>
       <c r="J14">
-        <v>0.9566430182710219</v>
+        <v>1.024283579350206</v>
       </c>
       <c r="K14">
-        <v>0.9766516964078631</v>
+        <v>1.026334788917443</v>
       </c>
       <c r="L14">
-        <v>0.9575818043275554</v>
+        <v>1.022581775758439</v>
       </c>
       <c r="M14">
-        <v>0.9005028964377824</v>
+        <v>1.016981971722612</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9248896484748483</v>
+        <v>1.017759053271298</v>
       </c>
       <c r="D15">
-        <v>0.9617982037436384</v>
+        <v>1.022842120559513</v>
       </c>
       <c r="E15">
-        <v>0.9424527789496949</v>
+        <v>1.019100476896283</v>
       </c>
       <c r="F15">
-        <v>0.8846475560600195</v>
+        <v>1.013573964341206</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.020195422655813</v>
+        <v>1.027228634504375</v>
       </c>
       <c r="J15">
-        <v>0.9575866174040584</v>
+        <v>1.024423322530948</v>
       </c>
       <c r="K15">
-        <v>0.9774022230204725</v>
+        <v>1.026442686281114</v>
       </c>
       <c r="L15">
-        <v>0.958469648790879</v>
+        <v>1.022715302292909</v>
       </c>
       <c r="M15">
-        <v>0.9020441004274501</v>
+        <v>1.017210065404292</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9318310828469618</v>
+        <v>1.018797926479437</v>
       </c>
       <c r="D16">
-        <v>0.9667098874417434</v>
+        <v>1.023586960536372</v>
       </c>
       <c r="E16">
-        <v>0.9481862426296639</v>
+        <v>1.019995632829095</v>
       </c>
       <c r="F16">
-        <v>0.8942444018323166</v>
+        <v>1.015021776983073</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021990710752437</v>
+        <v>1.027433583506643</v>
       </c>
       <c r="J16">
-        <v>0.9629506798904098</v>
+        <v>1.025235222964499</v>
       </c>
       <c r="K16">
-        <v>0.9816688596859179</v>
+        <v>1.027069305401476</v>
       </c>
       <c r="L16">
-        <v>0.9635189204614413</v>
+        <v>1.023491173509505</v>
       </c>
       <c r="M16">
-        <v>0.9107840295459543</v>
+        <v>1.018535764023185</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9360509964778132</v>
+        <v>1.019448358622434</v>
       </c>
       <c r="D17">
-        <v>0.969700005045126</v>
+        <v>1.024053141217993</v>
       </c>
       <c r="E17">
-        <v>0.9516764856460654</v>
+        <v>1.020556153124788</v>
       </c>
       <c r="F17">
-        <v>0.9000563584933012</v>
+        <v>1.015928371361886</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023078157148547</v>
+        <v>1.027561272023931</v>
       </c>
       <c r="J17">
-        <v>0.9662096145672814</v>
+        <v>1.025743228784279</v>
       </c>
       <c r="K17">
-        <v>0.9842610126798641</v>
+        <v>1.027461152205052</v>
       </c>
       <c r="L17">
-        <v>0.9665883936933956</v>
+        <v>1.023976714099404</v>
       </c>
       <c r="M17">
-        <v>0.9160773724032724</v>
+        <v>1.019365687213086</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9384673021917274</v>
+        <v>1.019827309191882</v>
       </c>
       <c r="D18">
-        <v>0.9714134812071075</v>
+        <v>1.024324686499199</v>
       </c>
       <c r="E18">
-        <v>0.9536765665448516</v>
+        <v>1.020882744204919</v>
       </c>
       <c r="F18">
-        <v>0.9033771399297738</v>
+        <v>1.016456613926625</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02369934560559</v>
+        <v>1.027635438273585</v>
       </c>
       <c r="J18">
-        <v>0.96807491623645</v>
+        <v>1.026039084434718</v>
       </c>
       <c r="K18">
-        <v>0.9857446000258169</v>
+        <v>1.027689275776093</v>
       </c>
       <c r="L18">
-        <v>0.9683458632329465</v>
+        <v>1.02425951440155</v>
       </c>
       <c r="M18">
-        <v>0.9191018626255573</v>
+        <v>1.019849181822854</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9392838373024757</v>
+        <v>1.019956448254305</v>
       </c>
       <c r="D19">
-        <v>0.9719927266660472</v>
+        <v>1.024417214031584</v>
       </c>
       <c r="E19">
-        <v>0.9543527069977786</v>
+        <v>1.020994044259679</v>
       </c>
       <c r="F19">
-        <v>0.9044981896503342</v>
+        <v>1.016636637262416</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02390900627163</v>
+        <v>1.027660674210939</v>
       </c>
       <c r="J19">
-        <v>0.9687051231498877</v>
+        <v>1.026139886762494</v>
       </c>
       <c r="K19">
-        <v>0.9862458245850267</v>
+        <v>1.027766986749718</v>
       </c>
       <c r="L19">
-        <v>0.9689397385446294</v>
+        <v>1.024355873338586</v>
       </c>
       <c r="M19">
-        <v>0.9201228854213199</v>
+        <v>1.020013942607701</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9356029740445709</v>
+        <v>1.019378618593231</v>
       </c>
       <c r="D20">
-        <v>0.9693824049172071</v>
+        <v>1.024003162805108</v>
       </c>
       <c r="E20">
-        <v>0.951305764305762</v>
+        <v>1.020496051009811</v>
       </c>
       <c r="F20">
-        <v>0.8994400715351151</v>
+        <v>1.015831160387785</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.022962857350667</v>
+        <v>1.027547604589697</v>
       </c>
       <c r="J20">
-        <v>0.9658636958419365</v>
+        <v>1.02568877179887</v>
       </c>
       <c r="K20">
-        <v>0.9839858755385437</v>
+        <v>1.027419155730671</v>
       </c>
       <c r="L20">
-        <v>0.9662625211161395</v>
+        <v>1.023924662422042</v>
       </c>
       <c r="M20">
-        <v>0.9155160730280797</v>
+        <v>1.01927670509919</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9230827314117613</v>
+        <v>1.017494876636564</v>
       </c>
       <c r="D21">
-        <v>0.9605211036883287</v>
+        <v>1.022652665412852</v>
       </c>
       <c r="E21">
-        <v>0.9409618973841738</v>
+        <v>1.018872867858495</v>
       </c>
       <c r="F21">
-        <v>0.8821414935836851</v>
+        <v>1.013205835402476</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.019726877933782</v>
+        <v>1.027176323641874</v>
       </c>
       <c r="J21">
-        <v>0.9561896654785494</v>
+        <v>1.02421676433522</v>
       </c>
       <c r="K21">
-        <v>0.9762911101777706</v>
+        <v>1.026283195686443</v>
       </c>
       <c r="L21">
-        <v>0.9571552793372404</v>
+        <v>1.022517934671761</v>
       </c>
       <c r="M21">
-        <v>0.8997620067510773</v>
+        <v>1.016872922452826</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9147280279107902</v>
+        <v>1.016306436949061</v>
       </c>
       <c r="D22">
-        <v>0.9546243638849593</v>
+        <v>1.021800135179709</v>
       </c>
       <c r="E22">
-        <v>0.9340771069231675</v>
+        <v>1.01784904112612</v>
       </c>
       <c r="F22">
-        <v>0.8705082779796942</v>
+        <v>1.011549922551789</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.017554687626799</v>
+        <v>1.026940040039956</v>
       </c>
       <c r="J22">
-        <v>0.9497274018514584</v>
+        <v>1.023287043731903</v>
       </c>
       <c r="K22">
-        <v>0.9711516946889316</v>
+        <v>1.02556498133815</v>
       </c>
       <c r="L22">
-        <v>0.9510782921287797</v>
+        <v>1.021629701051387</v>
       </c>
       <c r="M22">
-        <v>0.8891701182415126</v>
+        <v>1.015356078569646</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9192070187556268</v>
+        <v>1.016936842306824</v>
       </c>
       <c r="D23">
-        <v>0.9577839195740235</v>
+        <v>1.02225240583533</v>
       </c>
       <c r="E23">
-        <v>0.9377662953252481</v>
+        <v>1.018392105887928</v>
       </c>
       <c r="F23">
-        <v>0.876754500687945</v>
+        <v>1.012428263980413</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.018720336682166</v>
+        <v>1.027065569593559</v>
       </c>
       <c r="J23">
-        <v>0.9531924688885943</v>
+        <v>1.023780310609135</v>
       </c>
       <c r="K23">
-        <v>0.9739073114042592</v>
+        <v>1.025946102627334</v>
       </c>
       <c r="L23">
-        <v>0.9543361075475442</v>
+        <v>1.022100932486619</v>
       </c>
       <c r="M23">
-        <v>0.8948568430519629</v>
+        <v>1.016160717149333</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9358055546832784</v>
+        <v>1.019410132455771</v>
       </c>
       <c r="D24">
-        <v>0.9695260088277928</v>
+        <v>1.024025747041799</v>
       </c>
       <c r="E24">
-        <v>0.9514733870961106</v>
+        <v>1.020523209652602</v>
       </c>
       <c r="F24">
-        <v>0.8997187576862484</v>
+        <v>1.015875087567518</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023014996650746</v>
+        <v>1.027553781279861</v>
       </c>
       <c r="J24">
-        <v>0.9660201109701898</v>
+        <v>1.025713379973826</v>
       </c>
       <c r="K24">
-        <v>0.9841102853778263</v>
+        <v>1.027438133470701</v>
       </c>
       <c r="L24">
-        <v>0.9664098700274178</v>
+        <v>1.023948183592812</v>
       </c>
       <c r="M24">
-        <v>0.9157698936188454</v>
+        <v>1.019316914094581</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9533184412815043</v>
+        <v>1.022263230495427</v>
       </c>
       <c r="D25">
-        <v>0.9819646185840322</v>
+        <v>1.026069137816638</v>
       </c>
       <c r="E25">
-        <v>0.9659944086154071</v>
+        <v>1.022982523262792</v>
       </c>
       <c r="F25">
-        <v>0.9236844618217287</v>
+        <v>1.019853138259466</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027490041256281</v>
+        <v>1.028108088081285</v>
       </c>
       <c r="J25">
-        <v>0.9795258485867433</v>
+        <v>1.027938782195218</v>
       </c>
       <c r="K25">
-        <v>0.9948495151603191</v>
+        <v>1.029152565777022</v>
       </c>
       <c r="L25">
-        <v>0.9791445998866286</v>
+        <v>1.026075886678193</v>
       </c>
       <c r="M25">
-        <v>0.9375955165350296</v>
+        <v>1.02295664205883</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_50/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.024525819036797</v>
+        <v>0.9661727331976347</v>
       </c>
       <c r="D2">
-        <v>1.027687710516158</v>
+        <v>0.9911207074398717</v>
       </c>
       <c r="E2">
-        <v>1.024933552443948</v>
+        <v>0.9766899215397831</v>
       </c>
       <c r="F2">
-        <v>1.023009657280859</v>
+        <v>0.9411386355956626</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028540493957157</v>
+        <v>1.030725202949807</v>
       </c>
       <c r="J2">
-        <v>1.029699942307616</v>
+        <v>0.9894145323126508</v>
       </c>
       <c r="K2">
-        <v>1.03050671189918</v>
+        <v>1.00270514683997</v>
       </c>
       <c r="L2">
-        <v>1.027760601293353</v>
+        <v>0.9884838470956622</v>
       </c>
       <c r="M2">
-        <v>1.025842355591445</v>
+        <v>0.9534838355527139</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026161437136498</v>
+        <v>0.974970863215658</v>
       </c>
       <c r="D3">
-        <v>1.028856640750343</v>
+        <v>0.9973975292070197</v>
       </c>
       <c r="E3">
-        <v>1.026344343702474</v>
+        <v>0.9840281976470399</v>
       </c>
       <c r="F3">
-        <v>1.025292674300836</v>
+        <v>0.9530321131303183</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028848906323447</v>
+        <v>1.032908961772863</v>
       </c>
       <c r="J3">
-        <v>1.030970959808858</v>
+        <v>0.9961679094754834</v>
       </c>
       <c r="K3">
-        <v>1.031482444217269</v>
+        <v>1.008063817792775</v>
       </c>
       <c r="L3">
-        <v>1.028976949128002</v>
+        <v>0.994869603752596</v>
       </c>
       <c r="M3">
-        <v>1.027928137798961</v>
+        <v>0.9643034524724013</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027216559348742</v>
+        <v>0.9804455940301063</v>
       </c>
       <c r="D4">
-        <v>1.029610172946366</v>
+        <v>1.001306490242137</v>
       </c>
       <c r="E4">
-        <v>1.027254609729758</v>
+        <v>0.9886016822356026</v>
       </c>
       <c r="F4">
-        <v>1.026766015625233</v>
+        <v>0.9604149386377134</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.02904592541324</v>
+        <v>1.034253117228625</v>
       </c>
       <c r="J4">
-        <v>1.03178989909272</v>
+        <v>1.000363084270065</v>
       </c>
       <c r="K4">
-        <v>1.032110404993197</v>
+        <v>1.011389172612276</v>
       </c>
       <c r="L4">
-        <v>1.029760893682251</v>
+        <v>0.9988396498720978</v>
       </c>
       <c r="M4">
-        <v>1.029273558623409</v>
+        <v>0.9710158263635729</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.027659374512954</v>
+        <v>0.9826987172683895</v>
       </c>
       <c r="D5">
-        <v>1.029926286923337</v>
+        <v>1.002915782565161</v>
       </c>
       <c r="E5">
-        <v>1.027636672956733</v>
+        <v>0.990485481786441</v>
       </c>
       <c r="F5">
-        <v>1.027384496626049</v>
+        <v>0.9634498300631549</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029128146644078</v>
+        <v>1.034802689149132</v>
       </c>
       <c r="J5">
-        <v>1.03213335714089</v>
+        <v>1.002087840165738</v>
       </c>
       <c r="K5">
-        <v>1.032373594298924</v>
+        <v>1.012755423311369</v>
       </c>
       <c r="L5">
-        <v>1.03008972997923</v>
+        <v>1.000472590087199</v>
       </c>
       <c r="M5">
-        <v>1.029838188597965</v>
+        <v>0.9737741000243818</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.027733681114168</v>
+        <v>0.9830742873511246</v>
       </c>
       <c r="D6">
-        <v>1.029979324790005</v>
+        <v>1.003184061049036</v>
       </c>
       <c r="E6">
-        <v>1.027700787484404</v>
+        <v>0.9907995792969663</v>
       </c>
       <c r="F6">
-        <v>1.02748828964073</v>
+        <v>0.9639555273799062</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029141916539691</v>
+        <v>1.034894081489486</v>
       </c>
       <c r="J6">
-        <v>1.032190977296248</v>
+        <v>1.002375232250952</v>
       </c>
       <c r="K6">
-        <v>1.032417737981618</v>
+        <v>1.012983023660315</v>
       </c>
       <c r="L6">
-        <v>1.030144900329333</v>
+        <v>1.000744725806024</v>
       </c>
       <c r="M6">
-        <v>1.02993293542691</v>
+        <v>0.9742336432622674</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027222479224694</v>
+        <v>0.9804758860765534</v>
       </c>
       <c r="D7">
-        <v>1.02961439949967</v>
+        <v>1.001328124342153</v>
       </c>
       <c r="E7">
-        <v>1.027259717267628</v>
+        <v>0.9886270028106481</v>
       </c>
       <c r="F7">
-        <v>1.026774283343722</v>
+        <v>0.9604557540486831</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.02904702643206</v>
+        <v>1.034260520372689</v>
       </c>
       <c r="J7">
-        <v>1.031794491616827</v>
+        <v>1.000386279757733</v>
       </c>
       <c r="K7">
-        <v>1.032113924893461</v>
+        <v>1.011407550373444</v>
       </c>
       <c r="L7">
-        <v>1.029765290477369</v>
+        <v>0.9988616076744967</v>
       </c>
       <c r="M7">
-        <v>1.029281107072734</v>
+        <v>0.9710529257404186</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025079262460586</v>
+        <v>0.9691937255868071</v>
       </c>
       <c r="D8">
-        <v>1.02808335076466</v>
+        <v>0.9932751721674714</v>
       </c>
       <c r="E8">
-        <v>1.025410883861994</v>
+        <v>0.979208038317582</v>
       </c>
       <c r="F8">
-        <v>1.023782042605536</v>
+        <v>0.9452268397367091</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.028645252316325</v>
+        <v>1.031478104875829</v>
       </c>
       <c r="J8">
-        <v>1.030130219620264</v>
+        <v>0.991734922561232</v>
       </c>
       <c r="K8">
-        <v>1.030837175534647</v>
+        <v>1.004547012704243</v>
       </c>
       <c r="L8">
-        <v>1.028172323415551</v>
+        <v>0.9906772153757125</v>
       </c>
       <c r="M8">
-        <v>1.026548144470262</v>
+        <v>0.957203678810452</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.021277184534424</v>
+        <v>0.9474425539237431</v>
       </c>
       <c r="D9">
-        <v>1.025363220781516</v>
+        <v>0.9777861795691771</v>
       </c>
       <c r="E9">
-        <v>1.022132456322145</v>
+        <v>0.9611157437759767</v>
       </c>
       <c r="F9">
-        <v>1.018478039050548</v>
+        <v>0.915669824813215</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.0279176286784</v>
+        <v>1.025996266576896</v>
       </c>
       <c r="J9">
-        <v>1.027170236782255</v>
+        <v>0.9749982489904568</v>
       </c>
       <c r="K9">
-        <v>1.028560892051068</v>
+        <v>0.9912502444743344</v>
       </c>
       <c r="L9">
-        <v>1.02534094549041</v>
+        <v>0.9748728531769609</v>
       </c>
       <c r="M9">
-        <v>1.021698855559106</v>
+        <v>0.9302972911234478</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.018724362017634</v>
+        <v>0.9313478608483944</v>
       </c>
       <c r="D10">
-        <v>1.023534227281019</v>
+        <v>0.9663676852083564</v>
       </c>
       <c r="E10">
-        <v>1.019932240805937</v>
+        <v>0.9477868004952871</v>
       </c>
       <c r="F10">
-        <v>1.01491924672758</v>
+        <v>0.8935778321656846</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027419111115213</v>
+        <v>1.02186598753073</v>
       </c>
       <c r="J10">
-        <v>1.025177751421224</v>
+        <v>0.9625773972495952</v>
       </c>
       <c r="K10">
-        <v>1.027024963942713</v>
+        <v>0.9813719452952704</v>
       </c>
       <c r="L10">
-        <v>1.023436247308853</v>
+        <v>0.9631674253183304</v>
       </c>
       <c r="M10">
-        <v>1.018441894768158</v>
+        <v>0.9101769501094853</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.017614445821065</v>
+        <v>0.9239027338698923</v>
       </c>
       <c r="D11">
-        <v>1.022738417258138</v>
+        <v>0.9611005919432422</v>
       </c>
       <c r="E11">
-        <v>1.018975885074752</v>
+        <v>0.9416383969432143</v>
       </c>
       <c r="F11">
-        <v>1.013372452707878</v>
+        <v>0.8832791970505499</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027200009760929</v>
+        <v>1.019939568367108</v>
       </c>
       <c r="J11">
-        <v>1.024310259714223</v>
+        <v>0.9568236517300676</v>
       </c>
       <c r="K11">
-        <v>1.026355390141623</v>
+        <v>0.9767953689504364</v>
       </c>
       <c r="L11">
-        <v>1.022607268868115</v>
+        <v>0.9577517558561023</v>
       </c>
       <c r="M11">
-        <v>1.017025518474922</v>
+        <v>0.9007980200008237</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.017201474107578</v>
+        <v>0.9210550988578724</v>
       </c>
       <c r="D12">
-        <v>1.022442228136365</v>
+        <v>0.9590887453878556</v>
       </c>
       <c r="E12">
-        <v>1.018620088630881</v>
+        <v>0.9392896925089872</v>
       </c>
       <c r="F12">
-        <v>1.012796997185136</v>
+        <v>0.879325231397267</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027118134505714</v>
+        <v>1.019200547483807</v>
       </c>
       <c r="J12">
-        <v>1.023987308178796</v>
+        <v>0.9546217792297983</v>
       </c>
       <c r="K12">
-        <v>1.026105991807054</v>
+        <v>0.9750440787712487</v>
       </c>
       <c r="L12">
-        <v>1.022298699342182</v>
+        <v>0.9556803775589404</v>
       </c>
       <c r="M12">
-        <v>1.016498467029757</v>
+        <v>0.8971975677217676</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.017290089904134</v>
+        <v>0.9216698433486481</v>
       </c>
       <c r="D13">
-        <v>1.022505788600579</v>
+        <v>0.9595229291614342</v>
       </c>
       <c r="E13">
-        <v>1.018696433916071</v>
+        <v>0.9397965889551657</v>
       </c>
       <c r="F13">
-        <v>1.012920475957933</v>
+        <v>0.8801795379060686</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027135719329091</v>
+        <v>1.01936018243789</v>
       </c>
       <c r="J13">
-        <v>1.024056615505821</v>
+        <v>0.9550971688046921</v>
       </c>
       <c r="K13">
-        <v>1.026159519956526</v>
+        <v>0.9754221787072429</v>
       </c>
       <c r="L13">
-        <v>1.022364918199222</v>
+        <v>0.9561275406444376</v>
       </c>
       <c r="M13">
-        <v>1.016611564677435</v>
+        <v>0.8979754684486205</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.017580323830693</v>
+        <v>0.9236690944228695</v>
       </c>
       <c r="D14">
-        <v>1.022713946277783</v>
+        <v>0.9609354681039067</v>
       </c>
       <c r="E14">
-        <v>1.018946486410964</v>
+        <v>0.9414456312290617</v>
       </c>
       <c r="F14">
-        <v>1.013324904082716</v>
+        <v>0.8829551079828861</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.0271932519745</v>
+        <v>1.019878977338204</v>
       </c>
       <c r="J14">
-        <v>1.024283579350206</v>
+        <v>0.9566430182710201</v>
       </c>
       <c r="K14">
-        <v>1.026334788917443</v>
+        <v>0.9766516964078618</v>
       </c>
       <c r="L14">
-        <v>1.022581775758439</v>
+        <v>0.9575818043275538</v>
       </c>
       <c r="M14">
-        <v>1.016981971722612</v>
+        <v>0.9005028964377801</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.017759053271298</v>
+        <v>0.9248896484748464</v>
       </c>
       <c r="D15">
-        <v>1.022842120559513</v>
+        <v>0.9617982037436371</v>
       </c>
       <c r="E15">
-        <v>1.019100476896283</v>
+        <v>0.9424527789496934</v>
       </c>
       <c r="F15">
-        <v>1.013573964341206</v>
+        <v>0.8846475560600182</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027228634504375</v>
+        <v>1.020195422655812</v>
       </c>
       <c r="J15">
-        <v>1.024423322530948</v>
+        <v>0.9575866174040567</v>
       </c>
       <c r="K15">
-        <v>1.026442686281114</v>
+        <v>0.9774022230204713</v>
       </c>
       <c r="L15">
-        <v>1.022715302292909</v>
+        <v>0.9584696487908774</v>
       </c>
       <c r="M15">
-        <v>1.017210065404292</v>
+        <v>0.9020441004274485</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.018797926479437</v>
+        <v>0.9318310828469631</v>
       </c>
       <c r="D16">
-        <v>1.023586960536372</v>
+        <v>0.9667098874417445</v>
       </c>
       <c r="E16">
-        <v>1.019995632829095</v>
+        <v>0.948186242629665</v>
       </c>
       <c r="F16">
-        <v>1.015021776983073</v>
+        <v>0.894244401832318</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027433583506643</v>
+        <v>1.021990710752438</v>
       </c>
       <c r="J16">
-        <v>1.025235222964499</v>
+        <v>0.9629506798904112</v>
       </c>
       <c r="K16">
-        <v>1.027069305401476</v>
+        <v>0.9816688596859192</v>
       </c>
       <c r="L16">
-        <v>1.023491173509505</v>
+        <v>0.9635189204614421</v>
       </c>
       <c r="M16">
-        <v>1.018535764023185</v>
+        <v>0.9107840295459556</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.019448358622434</v>
+        <v>0.9360509964778123</v>
       </c>
       <c r="D17">
-        <v>1.024053141217993</v>
+        <v>0.969700005045125</v>
       </c>
       <c r="E17">
-        <v>1.020556153124788</v>
+        <v>0.9516764856460643</v>
       </c>
       <c r="F17">
-        <v>1.015928371361886</v>
+        <v>0.9000563584933005</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027561272023931</v>
+        <v>1.023078157148546</v>
       </c>
       <c r="J17">
-        <v>1.025743228784279</v>
+        <v>0.9662096145672805</v>
       </c>
       <c r="K17">
-        <v>1.027461152205052</v>
+        <v>0.9842610126798631</v>
       </c>
       <c r="L17">
-        <v>1.023976714099404</v>
+        <v>0.9665883936933943</v>
       </c>
       <c r="M17">
-        <v>1.019365687213086</v>
+        <v>0.9160773724032711</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.019827309191882</v>
+        <v>0.9384673021917279</v>
       </c>
       <c r="D18">
-        <v>1.024324686499199</v>
+        <v>0.9714134812071082</v>
       </c>
       <c r="E18">
-        <v>1.020882744204919</v>
+        <v>0.9536765665448523</v>
       </c>
       <c r="F18">
-        <v>1.016456613926625</v>
+        <v>0.9033771399297751</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027635438273585</v>
+        <v>1.023699345605591</v>
       </c>
       <c r="J18">
-        <v>1.026039084434718</v>
+        <v>0.9680749162364508</v>
       </c>
       <c r="K18">
-        <v>1.027689275776093</v>
+        <v>0.9857446000258175</v>
       </c>
       <c r="L18">
-        <v>1.02425951440155</v>
+        <v>0.9683458632329471</v>
       </c>
       <c r="M18">
-        <v>1.019849181822854</v>
+        <v>0.9191018626255586</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.019956448254305</v>
+        <v>0.9392838373024741</v>
       </c>
       <c r="D19">
-        <v>1.024417214031584</v>
+        <v>0.971992726666046</v>
       </c>
       <c r="E19">
-        <v>1.020994044259679</v>
+        <v>0.9543527069977771</v>
       </c>
       <c r="F19">
-        <v>1.016636637262416</v>
+        <v>0.9044981896503324</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027660674210939</v>
+        <v>1.02390900627163</v>
       </c>
       <c r="J19">
-        <v>1.026139886762494</v>
+        <v>0.9687051231498862</v>
       </c>
       <c r="K19">
-        <v>1.027766986749718</v>
+        <v>0.9862458245850256</v>
       </c>
       <c r="L19">
-        <v>1.024355873338586</v>
+        <v>0.9689397385446279</v>
       </c>
       <c r="M19">
-        <v>1.020013942607701</v>
+        <v>0.9201228854213181</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.019378618593231</v>
+        <v>0.9356029740445713</v>
       </c>
       <c r="D20">
-        <v>1.024003162805108</v>
+        <v>0.9693824049172073</v>
       </c>
       <c r="E20">
-        <v>1.020496051009811</v>
+        <v>0.9513057643057621</v>
       </c>
       <c r="F20">
-        <v>1.015831160387785</v>
+        <v>0.8994400715351156</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027547604589697</v>
+        <v>1.022962857350667</v>
       </c>
       <c r="J20">
-        <v>1.02568877179887</v>
+        <v>0.9658636958419369</v>
       </c>
       <c r="K20">
-        <v>1.027419155730671</v>
+        <v>0.983985875538544</v>
       </c>
       <c r="L20">
-        <v>1.023924662422042</v>
+        <v>0.9662625211161399</v>
       </c>
       <c r="M20">
-        <v>1.01927670509919</v>
+        <v>0.9155160730280801</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.017494876636564</v>
+        <v>0.9230827314117618</v>
       </c>
       <c r="D21">
-        <v>1.022652665412852</v>
+        <v>0.960521103688329</v>
       </c>
       <c r="E21">
-        <v>1.018872867858495</v>
+        <v>0.940961897384174</v>
       </c>
       <c r="F21">
-        <v>1.013205835402476</v>
+        <v>0.8821414935836848</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027176323641874</v>
+        <v>1.019726877933782</v>
       </c>
       <c r="J21">
-        <v>1.02421676433522</v>
+        <v>0.9561896654785497</v>
       </c>
       <c r="K21">
-        <v>1.026283195686443</v>
+        <v>0.9762911101777709</v>
       </c>
       <c r="L21">
-        <v>1.022517934671761</v>
+        <v>0.9571552793372406</v>
       </c>
       <c r="M21">
-        <v>1.016872922452826</v>
+        <v>0.899762006751077</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.016306436949061</v>
+        <v>0.9147280279107909</v>
       </c>
       <c r="D22">
-        <v>1.021800135179709</v>
+        <v>0.9546243638849597</v>
       </c>
       <c r="E22">
-        <v>1.01784904112612</v>
+        <v>0.9340771069231681</v>
       </c>
       <c r="F22">
-        <v>1.011549922551789</v>
+        <v>0.8705082779796951</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026940040039956</v>
+        <v>1.017554687626799</v>
       </c>
       <c r="J22">
-        <v>1.023287043731903</v>
+        <v>0.949727401851459</v>
       </c>
       <c r="K22">
-        <v>1.02556498133815</v>
+        <v>0.9711516946889321</v>
       </c>
       <c r="L22">
-        <v>1.021629701051387</v>
+        <v>0.9510782921287804</v>
       </c>
       <c r="M22">
-        <v>1.015356078569646</v>
+        <v>0.8891701182415136</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.016936842306824</v>
+        <v>0.9192070187556253</v>
       </c>
       <c r="D23">
-        <v>1.02225240583533</v>
+        <v>0.9577839195740223</v>
       </c>
       <c r="E23">
-        <v>1.018392105887928</v>
+        <v>0.9377662953252467</v>
       </c>
       <c r="F23">
-        <v>1.012428263980413</v>
+        <v>0.876754500687943</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027065569593559</v>
+        <v>1.018720336682166</v>
       </c>
       <c r="J23">
-        <v>1.023780310609135</v>
+        <v>0.9531924688885931</v>
       </c>
       <c r="K23">
-        <v>1.025946102627334</v>
+        <v>0.973907311404258</v>
       </c>
       <c r="L23">
-        <v>1.022100932486619</v>
+        <v>0.9543361075475428</v>
       </c>
       <c r="M23">
-        <v>1.016160717149333</v>
+        <v>0.8948568430519611</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.019410132455771</v>
+        <v>0.9358055546832766</v>
       </c>
       <c r="D24">
-        <v>1.024025747041799</v>
+        <v>0.9695260088277916</v>
       </c>
       <c r="E24">
-        <v>1.020523209652602</v>
+        <v>0.951473387096109</v>
       </c>
       <c r="F24">
-        <v>1.015875087567518</v>
+        <v>0.8997187576862465</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027553781279861</v>
+        <v>1.023014996650746</v>
       </c>
       <c r="J24">
-        <v>1.025713379973826</v>
+        <v>0.9660201109701881</v>
       </c>
       <c r="K24">
-        <v>1.027438133470701</v>
+        <v>0.9841102853778251</v>
       </c>
       <c r="L24">
-        <v>1.023948183592812</v>
+        <v>0.9664098700274163</v>
       </c>
       <c r="M24">
-        <v>1.019316914094581</v>
+        <v>0.9157698936188435</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.022263230495427</v>
+        <v>0.9533184412815046</v>
       </c>
       <c r="D25">
-        <v>1.026069137816638</v>
+        <v>0.9819646185840324</v>
       </c>
       <c r="E25">
-        <v>1.022982523262792</v>
+        <v>0.9659944086154072</v>
       </c>
       <c r="F25">
-        <v>1.019853138259466</v>
+        <v>0.9236844618217289</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028108088081285</v>
+        <v>1.027490041256281</v>
       </c>
       <c r="J25">
-        <v>1.027938782195218</v>
+        <v>0.9795258485867435</v>
       </c>
       <c r="K25">
-        <v>1.029152565777022</v>
+        <v>0.9948495151603194</v>
       </c>
       <c r="L25">
-        <v>1.026075886678193</v>
+        <v>0.9791445998866286</v>
       </c>
       <c r="M25">
-        <v>1.02295664205883</v>
+        <v>0.9375955165350297</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_50/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,37 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9661727331976347</v>
+        <v>1.000651913499331</v>
       </c>
       <c r="D2">
-        <v>0.9911207074398717</v>
+        <v>1.023924924017983</v>
       </c>
       <c r="E2">
-        <v>0.9766899215397831</v>
+        <v>1.006967943259086</v>
       </c>
       <c r="F2">
-        <v>0.9411386355956626</v>
+        <v>1.028508840182983</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030725202949807</v>
+        <v>1.044552905004792</v>
       </c>
       <c r="J2">
-        <v>0.9894145323126508</v>
+        <v>1.022813143414357</v>
       </c>
       <c r="K2">
-        <v>1.00270514683997</v>
+        <v>1.035060712975127</v>
       </c>
       <c r="L2">
-        <v>0.9884838470956622</v>
+        <v>1.018331049666299</v>
       </c>
       <c r="M2">
-        <v>0.9534838355527139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.039584790787931</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503999</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.039901096898579</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.035861206256302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,37 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.974970863215658</v>
+        <v>1.004487742190265</v>
       </c>
       <c r="D3">
-        <v>0.9973975292070197</v>
+        <v>1.026413586617408</v>
       </c>
       <c r="E3">
-        <v>0.9840281976470399</v>
+        <v>1.009988808482669</v>
       </c>
       <c r="F3">
-        <v>0.9530321131303183</v>
+        <v>1.031167574051103</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032908961772863</v>
+        <v>1.045151143763962</v>
       </c>
       <c r="J3">
-        <v>0.9961679094754834</v>
+        <v>1.024856809991921</v>
       </c>
       <c r="K3">
-        <v>1.008063817792775</v>
+        <v>1.036719297357703</v>
       </c>
       <c r="L3">
-        <v>0.994869603752596</v>
+        <v>1.020495456293884</v>
       </c>
       <c r="M3">
-        <v>0.9643034524724013</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.041416606045842</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.041350855602874</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.037031303935134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -497,37 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9804455940301063</v>
+        <v>1.006927488416175</v>
       </c>
       <c r="D4">
-        <v>1.001306490242137</v>
+        <v>1.027999971627873</v>
       </c>
       <c r="E4">
-        <v>0.9886016822356026</v>
+        <v>1.011916168584436</v>
       </c>
       <c r="F4">
-        <v>0.9604149386377134</v>
+        <v>1.032865449218321</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034253117228625</v>
+        <v>1.045521881607367</v>
       </c>
       <c r="J4">
-        <v>1.000363084270065</v>
+        <v>1.026155633144234</v>
       </c>
       <c r="K4">
-        <v>1.011389172612276</v>
+        <v>1.037771810244233</v>
       </c>
       <c r="L4">
-        <v>0.9988396498720978</v>
+        <v>1.021872872241449</v>
       </c>
       <c r="M4">
-        <v>0.9710158263635729</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.042582760807765</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.04227378723237</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.037776424460409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -535,37 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9826987172683895</v>
+        <v>1.007946645453085</v>
       </c>
       <c r="D5">
-        <v>1.002915782565161</v>
+        <v>1.028665382104725</v>
       </c>
       <c r="E5">
-        <v>0.990485481786441</v>
+        <v>1.012723082133055</v>
       </c>
       <c r="F5">
-        <v>0.9634498300631549</v>
+        <v>1.033576966724004</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034802689149132</v>
+        <v>1.04567577667644</v>
       </c>
       <c r="J5">
-        <v>1.002087840165738</v>
+        <v>1.02669938127241</v>
       </c>
       <c r="K5">
-        <v>1.012755423311369</v>
+        <v>1.038213480632942</v>
       </c>
       <c r="L5">
-        <v>1.000472590087199</v>
+        <v>1.02244952649044</v>
       </c>
       <c r="M5">
-        <v>0.9737741000243818</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.043071480013929</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.042660574664553</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.038095913451007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -573,37 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9830742873511246</v>
+        <v>1.008121226086401</v>
       </c>
       <c r="D6">
-        <v>1.003184061049036</v>
+        <v>1.028781762628051</v>
       </c>
       <c r="E6">
-        <v>0.9907995792969663</v>
+        <v>1.012861869672778</v>
       </c>
       <c r="F6">
-        <v>0.9639555273799062</v>
+        <v>1.033699755814274</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034894081489486</v>
+        <v>1.045703715730521</v>
       </c>
       <c r="J6">
-        <v>1.002375232250952</v>
+        <v>1.02679428990353</v>
       </c>
       <c r="K6">
-        <v>1.012983023660315</v>
+        <v>1.038292282807244</v>
       </c>
       <c r="L6">
-        <v>1.000744725806024</v>
+        <v>1.022549666718411</v>
       </c>
       <c r="M6">
-        <v>0.9742336432622674</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.04315686547968</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.042728151330858</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.038160400046028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -611,37 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9804758860765534</v>
+        <v>1.006951995162801</v>
       </c>
       <c r="D7">
-        <v>1.001328124342153</v>
+        <v>1.02802226405755</v>
       </c>
       <c r="E7">
-        <v>0.9886270028106481</v>
+        <v>1.011936873387694</v>
       </c>
       <c r="F7">
-        <v>0.9604557540486831</v>
+        <v>1.032884725330591</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034260520372689</v>
+        <v>1.045530210051071</v>
       </c>
       <c r="J7">
-        <v>1.000386279757733</v>
+        <v>1.026173498364589</v>
       </c>
       <c r="K7">
-        <v>1.011407550373444</v>
+        <v>1.037790959387896</v>
       </c>
       <c r="L7">
-        <v>0.9988616076744967</v>
+        <v>1.021890380575496</v>
       </c>
       <c r="M7">
-        <v>0.9710529257404186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.04259894831145</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.042286598524657</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.037810129592244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -649,37 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9691937255868071</v>
+        <v>1.001970848844665</v>
       </c>
       <c r="D8">
-        <v>0.9932751721674714</v>
+        <v>1.024787691150931</v>
       </c>
       <c r="E8">
-        <v>0.979208038317582</v>
+        <v>1.008007111375374</v>
       </c>
       <c r="F8">
-        <v>0.9452268397367091</v>
+        <v>1.029424287966485</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031478104875829</v>
+        <v>1.044766332383718</v>
       </c>
       <c r="J8">
-        <v>0.991734922561232</v>
+        <v>1.023522035028102</v>
       </c>
       <c r="K8">
-        <v>1.004547012704243</v>
+        <v>1.0356420476726</v>
       </c>
       <c r="L8">
-        <v>0.9906772153757125</v>
+        <v>1.0190797027122</v>
       </c>
       <c r="M8">
-        <v>0.957203678810452</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.040219910152461</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.04040375153464</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.03629524465643</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -687,37 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9474425539237431</v>
+        <v>0.9928375683741665</v>
       </c>
       <c r="D9">
-        <v>0.9777861795691771</v>
+        <v>1.018876724014087</v>
       </c>
       <c r="E9">
-        <v>0.9611157437759767</v>
+        <v>1.000848319200648</v>
       </c>
       <c r="F9">
-        <v>0.915669824813215</v>
+        <v>1.023132015312596</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025996266576896</v>
+        <v>1.043282770439186</v>
       </c>
       <c r="J9">
-        <v>0.9749982489904568</v>
+        <v>1.018645810760691</v>
       </c>
       <c r="K9">
-        <v>0.9912502444743344</v>
+        <v>1.031670787560131</v>
       </c>
       <c r="L9">
-        <v>0.9748728531769609</v>
+        <v>1.01392764799529</v>
       </c>
       <c r="M9">
-        <v>0.9302972911234478</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.035860617858257</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.036953655210514</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.033484090297301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -725,37 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9313478608483944</v>
+        <v>0.9865627903263887</v>
       </c>
       <c r="D10">
-        <v>0.9663676852083564</v>
+        <v>1.014865705511782</v>
       </c>
       <c r="E10">
-        <v>0.9477868004952871</v>
+        <v>0.9959734336885209</v>
       </c>
       <c r="F10">
-        <v>0.8935778321656846</v>
+        <v>1.018931924746271</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02186598753073</v>
+        <v>1.042235780635352</v>
       </c>
       <c r="J10">
-        <v>0.9625773972495952</v>
+        <v>1.015319869621575</v>
       </c>
       <c r="K10">
-        <v>0.9813719452952704</v>
+        <v>1.02897164405686</v>
       </c>
       <c r="L10">
-        <v>0.9631674253183304</v>
+        <v>1.010415771612669</v>
       </c>
       <c r="M10">
-        <v>0.9101769501094853</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.032967568598089</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.034715659971547</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.03159250038777</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -763,37 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9239027338698923</v>
+        <v>0.9842733841334154</v>
       </c>
       <c r="D11">
-        <v>0.9611005919432422</v>
+        <v>1.013613398369279</v>
       </c>
       <c r="E11">
-        <v>0.9416383969432143</v>
+        <v>0.9942676360319671</v>
       </c>
       <c r="F11">
-        <v>0.8832791970505499</v>
+        <v>1.01805908669151</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.019939568367108</v>
+        <v>1.042001505675173</v>
       </c>
       <c r="J11">
-        <v>0.9568236517300676</v>
+        <v>1.014315366418082</v>
       </c>
       <c r="K11">
-        <v>0.9767953689504364</v>
+        <v>1.02828307267556</v>
       </c>
       <c r="L11">
-        <v>0.9577517558561023</v>
+        <v>1.009298472109915</v>
       </c>
       <c r="M11">
-        <v>0.9007980200008237</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.032648286009732</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.034900999471328</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.031138659819973</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -801,37 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9210550988578724</v>
+        <v>0.9835883558807206</v>
       </c>
       <c r="D12">
-        <v>0.9590887453878556</v>
+        <v>1.013324692768921</v>
       </c>
       <c r="E12">
-        <v>0.9392896925089872</v>
+        <v>0.9937879905649962</v>
       </c>
       <c r="F12">
-        <v>0.879325231397267</v>
+        <v>1.018079302848118</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.019200547483807</v>
+        <v>1.041996499287926</v>
       </c>
       <c r="J12">
-        <v>0.9546217792297983</v>
+        <v>1.014103900767388</v>
       </c>
       <c r="K12">
-        <v>0.9750440787712487</v>
+        <v>1.028200988912281</v>
       </c>
       <c r="L12">
-        <v>0.9556803775589404</v>
+        <v>1.009035178483855</v>
       </c>
       <c r="M12">
-        <v>0.8971975677217676</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.032868139576163</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.03540243764998</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.03108062338418</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -839,37 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9216698433486481</v>
+        <v>0.9841076125398937</v>
       </c>
       <c r="D13">
-        <v>0.9595229291614342</v>
+        <v>1.013776371990426</v>
       </c>
       <c r="E13">
-        <v>0.9397965889551657</v>
+        <v>0.9942312097538577</v>
       </c>
       <c r="F13">
-        <v>0.8801795379060686</v>
+        <v>1.018812946605705</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.01936018243789</v>
+        <v>1.042180461014695</v>
       </c>
       <c r="J13">
-        <v>0.9550971688046921</v>
+        <v>1.014504991588677</v>
       </c>
       <c r="K13">
-        <v>0.9754221787072429</v>
+        <v>1.028601149418658</v>
       </c>
       <c r="L13">
-        <v>0.9561275406444376</v>
+        <v>1.009425363004314</v>
       </c>
       <c r="M13">
-        <v>0.8979754684486205</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.033545528011037</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.036215504729862</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.031361047490744</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -877,37 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9236690944228695</v>
+        <v>0.9850168918654894</v>
       </c>
       <c r="D14">
-        <v>0.9609354681039067</v>
+        <v>1.014428409807997</v>
       </c>
       <c r="E14">
-        <v>0.9414456312290617</v>
+        <v>0.9949597876932198</v>
       </c>
       <c r="F14">
-        <v>0.8829551079828861</v>
+        <v>1.019648774761601</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.019878977338204</v>
+        <v>1.042394700300405</v>
       </c>
       <c r="J14">
-        <v>0.9566430182710201</v>
+        <v>1.015063114557274</v>
       </c>
       <c r="K14">
-        <v>0.9766516964078618</v>
+        <v>1.029099881244387</v>
       </c>
       <c r="L14">
-        <v>0.9575818043275538</v>
+        <v>1.009994479692603</v>
       </c>
       <c r="M14">
-        <v>0.9005028964377801</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.034225915061926</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.036927055806876</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.031715102116075</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -915,37 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9248896484748464</v>
+        <v>0.985506006921861</v>
       </c>
       <c r="D15">
-        <v>0.9617982037436371</v>
+        <v>1.014757024134967</v>
       </c>
       <c r="E15">
-        <v>0.9424527789496934</v>
+        <v>0.9953436815578507</v>
       </c>
       <c r="F15">
-        <v>0.8846475560600182</v>
+        <v>1.02002438952281</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.020195422655812</v>
+        <v>1.042491997504761</v>
       </c>
       <c r="J15">
-        <v>0.9575866174040567</v>
+        <v>1.01533961305705</v>
       </c>
       <c r="K15">
-        <v>0.9774022230204713</v>
+        <v>1.029335496653196</v>
       </c>
       <c r="L15">
-        <v>0.9584696487908774</v>
+        <v>1.010281527424275</v>
       </c>
       <c r="M15">
-        <v>0.9020441004274485</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.034508416734645</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.037187954806084</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.031887590012359</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -953,37 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9318310828469631</v>
+        <v>0.9880623969200879</v>
       </c>
       <c r="D16">
-        <v>0.9667098874417445</v>
+        <v>1.016373378741048</v>
       </c>
       <c r="E16">
-        <v>0.948186242629665</v>
+        <v>0.9973156427338762</v>
       </c>
       <c r="F16">
-        <v>0.894244401832318</v>
+        <v>1.021694976434979</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021990710752438</v>
+        <v>1.042916037348674</v>
       </c>
       <c r="J16">
-        <v>0.9629506798904112</v>
+        <v>1.016679453419063</v>
       </c>
       <c r="K16">
-        <v>0.9816688596859192</v>
+        <v>1.030417339896594</v>
       </c>
       <c r="L16">
-        <v>0.9635189204614421</v>
+        <v>1.011696712998482</v>
       </c>
       <c r="M16">
-        <v>0.9107840295459556</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.035647705455453</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.038049651682139</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.032655678826169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9360509964778123</v>
+        <v>0.9895495269039177</v>
       </c>
       <c r="D17">
-        <v>0.969700005045125</v>
+        <v>1.017273570119301</v>
       </c>
       <c r="E17">
-        <v>0.9516764856460643</v>
+        <v>0.9984502602357949</v>
       </c>
       <c r="F17">
-        <v>0.9000563584933005</v>
+        <v>1.022534859850234</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023078157148546</v>
+        <v>1.043126820826008</v>
       </c>
       <c r="J17">
-        <v>0.9662096145672805</v>
+        <v>1.017415310789943</v>
       </c>
       <c r="K17">
-        <v>0.9842610126798631</v>
+        <v>1.030985361226098</v>
       </c>
       <c r="L17">
-        <v>0.9665883936933943</v>
+        <v>1.012485516676094</v>
       </c>
       <c r="M17">
-        <v>0.9160773724032711</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.036158980652748</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.03832447495054</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.033059893595463</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9384673021917279</v>
+        <v>0.9902428018958769</v>
       </c>
       <c r="D18">
-        <v>0.9714134812071082</v>
+        <v>1.017616517418964</v>
       </c>
       <c r="E18">
-        <v>0.9536765665448523</v>
+        <v>0.9989544161790074</v>
       </c>
       <c r="F18">
-        <v>0.9033771399297751</v>
+        <v>1.022685786939983</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023699345605591</v>
+        <v>1.043163980799191</v>
       </c>
       <c r="J18">
-        <v>0.9680749162364508</v>
+        <v>1.017679560684604</v>
       </c>
       <c r="K18">
-        <v>0.9857446000258175</v>
+        <v>1.031137940807397</v>
       </c>
       <c r="L18">
-        <v>0.9683458632329471</v>
+        <v>1.012791222201733</v>
       </c>
       <c r="M18">
-        <v>0.9191018626255586</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.036124095888565</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.038058641651005</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.033156087266275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9392838373024741</v>
+        <v>0.9902290609722632</v>
       </c>
       <c r="D19">
-        <v>0.971992726666046</v>
+        <v>1.017470181391071</v>
       </c>
       <c r="E19">
-        <v>0.9543527069977771</v>
+        <v>0.9988988509967939</v>
       </c>
       <c r="F19">
-        <v>0.9044981896503324</v>
+        <v>1.022215735625928</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02390900627163</v>
+        <v>1.04305404523427</v>
       </c>
       <c r="J19">
-        <v>0.9687051231498862</v>
+        <v>1.017529534292496</v>
       </c>
       <c r="K19">
-        <v>0.9862458245850256</v>
+        <v>1.03093105584104</v>
       </c>
       <c r="L19">
-        <v>0.9689397385446279</v>
+        <v>1.012671973166363</v>
       </c>
       <c r="M19">
-        <v>0.9201228854213181</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.035599158486136</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.037317133356852</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.033016234910758</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9356029740445713</v>
+        <v>0.9882181677328753</v>
       </c>
       <c r="D20">
-        <v>0.9693824049172073</v>
+        <v>1.015938987708625</v>
       </c>
       <c r="E20">
-        <v>0.9513057643057621</v>
+        <v>0.9972611200814391</v>
       </c>
       <c r="F20">
-        <v>0.8994400715351156</v>
+        <v>1.020046747330662</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.022962857350667</v>
+        <v>1.042527730697424</v>
       </c>
       <c r="J20">
-        <v>0.9658636958419369</v>
+        <v>1.016210937711216</v>
       </c>
       <c r="K20">
-        <v>0.983985875538544</v>
+        <v>1.029707242033044</v>
       </c>
       <c r="L20">
-        <v>0.9662625211161399</v>
+        <v>1.011352300965186</v>
       </c>
       <c r="M20">
-        <v>0.9155160730280801</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.033746025778345</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.035321132486879</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.032154885879865</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9230827314117618</v>
+        <v>0.9834145847635811</v>
       </c>
       <c r="D21">
-        <v>0.960521103688329</v>
+        <v>1.012835440008499</v>
       </c>
       <c r="E21">
-        <v>0.940961897384174</v>
+        <v>0.9935297958170808</v>
       </c>
       <c r="F21">
-        <v>0.8821414935836848</v>
+        <v>1.016718790985886</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.019726877933782</v>
+        <v>1.041678205026106</v>
       </c>
       <c r="J21">
-        <v>0.9561896654785497</v>
+        <v>1.013622482882537</v>
       </c>
       <c r="K21">
-        <v>0.9762911101777709</v>
+        <v>1.027577654068518</v>
       </c>
       <c r="L21">
-        <v>0.9571552793372406</v>
+        <v>1.008634793834491</v>
       </c>
       <c r="M21">
-        <v>0.899762006751077</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.031390195601287</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.033415589372164</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.030652420061928</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9147280279107909</v>
+        <v>0.9803532162899941</v>
       </c>
       <c r="D22">
-        <v>0.9546243638849597</v>
+        <v>1.010869708250612</v>
       </c>
       <c r="E22">
-        <v>0.9340771069231681</v>
+        <v>0.9911622303828285</v>
       </c>
       <c r="F22">
-        <v>0.8705082779796951</v>
+        <v>1.014646452541095</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.017554687626799</v>
+        <v>1.041132324919427</v>
       </c>
       <c r="J22">
-        <v>0.949727401851459</v>
+        <v>1.0119806193838</v>
       </c>
       <c r="K22">
-        <v>0.9711516946889321</v>
+        <v>1.026228866334055</v>
       </c>
       <c r="L22">
-        <v>0.9510782921287804</v>
+        <v>1.006910822069846</v>
       </c>
       <c r="M22">
-        <v>0.8891701182415136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.029933239061239</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.032262493527716</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.029685177051173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9192070187556253</v>
+        <v>0.9819713192547095</v>
       </c>
       <c r="D23">
-        <v>0.9577839195740223</v>
+        <v>1.011902489616959</v>
       </c>
       <c r="E23">
-        <v>0.9377662953252467</v>
+        <v>0.9924113026828487</v>
       </c>
       <c r="F23">
-        <v>0.876754500687943</v>
+        <v>1.015738871999207</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.018720336682166</v>
+        <v>1.041417678271885</v>
       </c>
       <c r="J23">
-        <v>0.9531924688885931</v>
+        <v>1.012843998312083</v>
       </c>
       <c r="K23">
-        <v>0.973907311404258</v>
+        <v>1.026934348872506</v>
       </c>
       <c r="L23">
-        <v>0.9543361075475428</v>
+        <v>1.007818270930272</v>
       </c>
       <c r="M23">
-        <v>0.8948568430519611</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.03069911134406</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.032868636859386</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.030174297081062</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9358055546832766</v>
+        <v>0.9882340667184223</v>
       </c>
       <c r="D24">
-        <v>0.9695260088277916</v>
+        <v>1.015920882800944</v>
       </c>
       <c r="E24">
-        <v>0.951473387096109</v>
+        <v>0.997265250372801</v>
       </c>
       <c r="F24">
-        <v>0.8997187576862465</v>
+        <v>1.019990112767531</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023014996650746</v>
+        <v>1.042509235986055</v>
       </c>
       <c r="J24">
-        <v>0.9660201109701881</v>
+        <v>1.016192682353726</v>
       </c>
       <c r="K24">
-        <v>0.9841102853778251</v>
+        <v>1.02967406182222</v>
       </c>
       <c r="L24">
-        <v>0.9664098700274163</v>
+        <v>1.011340562089835</v>
       </c>
       <c r="M24">
-        <v>0.9157698936188435</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.033675044079517</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.035223909430464</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.032103883221664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9533184412815046</v>
+        <v>0.9952586052256051</v>
       </c>
       <c r="D25">
-        <v>0.9819646185840324</v>
+        <v>1.020449562155427</v>
       </c>
       <c r="E25">
-        <v>0.9659944086154072</v>
+        <v>1.002742304964959</v>
       </c>
       <c r="F25">
-        <v>0.9236844618217289</v>
+        <v>1.024796454653183</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027490041256281</v>
+        <v>1.043691783168895</v>
       </c>
       <c r="J25">
-        <v>0.9795258485867435</v>
+        <v>1.019946596635134</v>
       </c>
       <c r="K25">
-        <v>0.9948495151603194</v>
+        <v>1.032738507488681</v>
       </c>
       <c r="L25">
-        <v>0.9791445998866286</v>
+        <v>1.015298198820309</v>
       </c>
       <c r="M25">
-        <v>0.9375955165350297</v>
+        <v>1.037021657135208</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.037872543910436</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.034267746482022</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_50/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.000651913499331</v>
+        <v>1.000184629021096</v>
       </c>
       <c r="D2">
-        <v>1.023924924017983</v>
+        <v>1.02324932403287</v>
       </c>
       <c r="E2">
-        <v>1.006967943259086</v>
+        <v>1.006577234230715</v>
       </c>
       <c r="F2">
-        <v>1.028508840182983</v>
+        <v>1.028023401320282</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.044552905004792</v>
+        <v>1.04429212567308</v>
       </c>
       <c r="J2">
-        <v>1.022813143414357</v>
+        <v>1.022359819268273</v>
       </c>
       <c r="K2">
-        <v>1.035060712975127</v>
+        <v>1.034393989084488</v>
       </c>
       <c r="L2">
-        <v>1.018331049666299</v>
+        <v>1.01794569198106</v>
       </c>
       <c r="M2">
-        <v>1.039584790787931</v>
+        <v>1.039105657203899</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.009637762185257</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.039901096898579</v>
+        <v>1.039521894376367</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.035861206256302</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.035398577565253</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021195752601957</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004487742190265</v>
+        <v>1.003903530573064</v>
       </c>
       <c r="D3">
-        <v>1.026413586617408</v>
+        <v>1.025581161694266</v>
       </c>
       <c r="E3">
-        <v>1.009988808482669</v>
+        <v>1.009494437502951</v>
       </c>
       <c r="F3">
-        <v>1.031167574051103</v>
+        <v>1.030569144113881</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.045151143763962</v>
+        <v>1.04482268198365</v>
       </c>
       <c r="J3">
-        <v>1.024856809991921</v>
+        <v>1.024288344115478</v>
       </c>
       <c r="K3">
-        <v>1.036719297357703</v>
+        <v>1.035896863978522</v>
       </c>
       <c r="L3">
-        <v>1.020495456293884</v>
+        <v>1.020007259653904</v>
       </c>
       <c r="M3">
-        <v>1.041416606045842</v>
+        <v>1.040825275153193</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.041350855602874</v>
+        <v>1.040882857248969</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.037031303935134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.036458296320425</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021501344954362</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006927488416175</v>
+        <v>1.00626984661464</v>
       </c>
       <c r="D4">
-        <v>1.027999971627873</v>
+        <v>1.027068439992628</v>
       </c>
       <c r="E4">
-        <v>1.011916168584436</v>
+        <v>1.01135664060732</v>
       </c>
       <c r="F4">
-        <v>1.032865449218321</v>
+        <v>1.03219574075593</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.045521881607367</v>
+        <v>1.045150619118227</v>
       </c>
       <c r="J4">
-        <v>1.026155633144234</v>
+        <v>1.025514517592315</v>
       </c>
       <c r="K4">
-        <v>1.037771810244233</v>
+        <v>1.036850790815578</v>
       </c>
       <c r="L4">
-        <v>1.021872872241449</v>
+        <v>1.021319906349837</v>
       </c>
       <c r="M4">
-        <v>1.042582760807765</v>
+        <v>1.041920520169774</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.04227378723237</v>
+        <v>1.041749669265525</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.037776424460409</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.03713378919468</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021692933352149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.007946645453085</v>
+        <v>1.007258572134057</v>
       </c>
       <c r="D5">
-        <v>1.028665382104725</v>
+        <v>1.027692667399298</v>
       </c>
       <c r="E5">
-        <v>1.012723082133055</v>
+        <v>1.012136535353625</v>
       </c>
       <c r="F5">
-        <v>1.033576966724004</v>
+        <v>1.032877662450639</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.04567577667644</v>
+        <v>1.045286709175582</v>
       </c>
       <c r="J5">
-        <v>1.02669938127241</v>
+        <v>1.026028082560818</v>
       </c>
       <c r="K5">
-        <v>1.038213480632942</v>
+        <v>1.037251452862393</v>
       </c>
       <c r="L5">
-        <v>1.02244952649044</v>
+        <v>1.021869673561584</v>
       </c>
       <c r="M5">
-        <v>1.043071480013929</v>
+        <v>1.042379766952076</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.042660574664553</v>
+        <v>1.042113131582219</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.038095913451007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.037424993346418</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02177327740978</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008121226086401</v>
+        <v>1.007427984055201</v>
       </c>
       <c r="D6">
-        <v>1.028781762628051</v>
+        <v>1.027802082471696</v>
       </c>
       <c r="E6">
-        <v>1.012861869672778</v>
+        <v>1.012270726715507</v>
       </c>
       <c r="F6">
-        <v>1.033699755814274</v>
+        <v>1.032995440981865</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.045703715730521</v>
+        <v>1.045311619707535</v>
       </c>
       <c r="J6">
-        <v>1.02679428990353</v>
+        <v>1.026117861595484</v>
       </c>
       <c r="K6">
-        <v>1.038292282807244</v>
+        <v>1.037323317160872</v>
       </c>
       <c r="L6">
-        <v>1.022549666718411</v>
+        <v>1.021965238837826</v>
       </c>
       <c r="M6">
-        <v>1.04315686547968</v>
+        <v>1.042460161401126</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.042728151330858</v>
+        <v>1.042176758253582</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.038160400046028</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.037485444171919</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021788205754873</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006951995162801</v>
+        <v>1.006293695391793</v>
       </c>
       <c r="D7">
-        <v>1.02802226405755</v>
+        <v>1.027089949274155</v>
       </c>
       <c r="E7">
-        <v>1.011936873387694</v>
+        <v>1.011376742624448</v>
       </c>
       <c r="F7">
-        <v>1.032884725330591</v>
+        <v>1.032214435287789</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.045530210051071</v>
+        <v>1.045158561373115</v>
       </c>
       <c r="J7">
-        <v>1.026173498364589</v>
+        <v>1.025531734260031</v>
       </c>
       <c r="K7">
-        <v>1.037790959387896</v>
+        <v>1.036869161586051</v>
       </c>
       <c r="L7">
-        <v>1.021890380575496</v>
+        <v>1.021336816438062</v>
       </c>
       <c r="M7">
-        <v>1.04259894831145</v>
+        <v>1.041936129749593</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.042286598524657</v>
+        <v>1.041762023179884</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.037810129592244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.037168945671261</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021698108605351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.001970848844665</v>
+        <v>1.001463205640165</v>
       </c>
       <c r="D8">
-        <v>1.024787691150931</v>
+        <v>1.024058253253372</v>
       </c>
       <c r="E8">
-        <v>1.008007111375374</v>
+        <v>1.007580608723582</v>
       </c>
       <c r="F8">
-        <v>1.029424287966485</v>
+        <v>1.028900004165416</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.044766332383718</v>
+        <v>1.04448225388561</v>
       </c>
       <c r="J8">
-        <v>1.023522035028102</v>
+        <v>1.023029048388533</v>
       </c>
       <c r="K8">
-        <v>1.0356420476726</v>
+        <v>1.034921910457083</v>
       </c>
       <c r="L8">
-        <v>1.0190797027122</v>
+        <v>1.018658865688217</v>
       </c>
       <c r="M8">
-        <v>1.040219910152461</v>
+        <v>1.039702234623133</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.04040375153464</v>
+        <v>1.03999404589106</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.03629524465643</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.035797118434653</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021305437273158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9928375683741665</v>
+        <v>0.9926140978892268</v>
       </c>
       <c r="D9">
-        <v>1.018876724014087</v>
+        <v>1.018524298718776</v>
       </c>
       <c r="E9">
-        <v>1.000848319200648</v>
+        <v>1.000673280890099</v>
       </c>
       <c r="F9">
-        <v>1.023132015312596</v>
+        <v>1.022880198008595</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.043282770439186</v>
+        <v>1.043161248129522</v>
       </c>
       <c r="J9">
-        <v>1.018645810760691</v>
+        <v>1.01843039468103</v>
       </c>
       <c r="K9">
-        <v>1.031670787560131</v>
+        <v>1.031323815103204</v>
       </c>
       <c r="L9">
-        <v>1.01392764799529</v>
+        <v>1.013755444018142</v>
       </c>
       <c r="M9">
-        <v>1.035860617858257</v>
+        <v>1.035612655027406</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.036953655210514</v>
+        <v>1.036757408256439</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.033484090297301</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.033249543858658</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020558772686489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9865627903263887</v>
+        <v>0.9865366100585474</v>
       </c>
       <c r="D10">
-        <v>1.014865705511782</v>
+        <v>1.014771972640882</v>
       </c>
       <c r="E10">
-        <v>0.9959734336885209</v>
+        <v>0.9959720728142454</v>
       </c>
       <c r="F10">
-        <v>1.018931924746271</v>
+        <v>1.018867765529821</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.042235780635352</v>
+        <v>1.04222506339244</v>
       </c>
       <c r="J10">
-        <v>1.015319869621575</v>
+        <v>1.015294768751582</v>
       </c>
       <c r="K10">
-        <v>1.02897164405686</v>
+        <v>1.02887954018964</v>
       </c>
       <c r="L10">
-        <v>1.010415771612669</v>
+        <v>1.010414435568727</v>
       </c>
       <c r="M10">
-        <v>1.032967568598089</v>
+        <v>1.03290451290033</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.034715659971547</v>
+        <v>1.034665758347877</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.03159250038777</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.031539850923969</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020045400867867</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9842733841334154</v>
+        <v>0.9842865743151283</v>
       </c>
       <c r="D11">
-        <v>1.013613398369279</v>
+        <v>1.013579973037324</v>
       </c>
       <c r="E11">
-        <v>0.9942676360319671</v>
+        <v>0.9942985258840461</v>
       </c>
       <c r="F11">
-        <v>1.01805908669151</v>
+        <v>1.018037622723906</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.042001505675173</v>
+        <v>1.04201243660653</v>
       </c>
       <c r="J11">
-        <v>1.014315366418082</v>
+        <v>1.014327982516988</v>
       </c>
       <c r="K11">
-        <v>1.02828307267556</v>
+        <v>1.02825025588199</v>
       </c>
       <c r="L11">
-        <v>1.009298472109915</v>
+        <v>1.009328770623741</v>
       </c>
       <c r="M11">
-        <v>1.032648286009732</v>
+        <v>1.032627208384287</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.034900999471328</v>
+        <v>1.034884327317969</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.031138659819973</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.031131154098841</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019956930143805</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9835883558807206</v>
+        <v>0.9835972457079798</v>
       </c>
       <c r="D12">
-        <v>1.013324692768921</v>
+        <v>1.013292851164047</v>
       </c>
       <c r="E12">
-        <v>0.9937879905649962</v>
+        <v>0.9938131870701582</v>
       </c>
       <c r="F12">
-        <v>1.018079302848118</v>
+        <v>1.018058136609993</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.041996499287926</v>
+        <v>1.042004824829413</v>
       </c>
       <c r="J12">
-        <v>1.014103900767388</v>
+        <v>1.014112396159384</v>
       </c>
       <c r="K12">
-        <v>1.028200988912281</v>
+        <v>1.028169736629976</v>
       </c>
       <c r="L12">
-        <v>1.009035178483855</v>
+        <v>1.009059884333348</v>
       </c>
       <c r="M12">
-        <v>1.032868139576163</v>
+        <v>1.03284736032685</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.03540243764998</v>
+        <v>1.035386007112252</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.03108062338418</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.03107422503501</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019972783214435</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9841076125398937</v>
+        <v>0.9840777561804059</v>
       </c>
       <c r="D13">
-        <v>1.013776371990426</v>
+        <v>1.013700399679552</v>
       </c>
       <c r="E13">
-        <v>0.9942312097538577</v>
+        <v>0.9942207059353314</v>
       </c>
       <c r="F13">
-        <v>1.018812946605705</v>
+        <v>1.018759066370247</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.042180461014695</v>
+        <v>1.042167092967873</v>
       </c>
       <c r="J13">
-        <v>1.014504991588677</v>
+        <v>1.014476453149695</v>
       </c>
       <c r="K13">
-        <v>1.028601149418658</v>
+        <v>1.028526576943948</v>
       </c>
       <c r="L13">
-        <v>1.009425363004314</v>
+        <v>1.00941506281101</v>
       </c>
       <c r="M13">
-        <v>1.033545528011037</v>
+        <v>1.033492627792837</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.036215504729862</v>
+        <v>1.036173686118295</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.031361047490744</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.031323771548717</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020077196556278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9850168918654894</v>
+        <v>0.9849447755534589</v>
       </c>
       <c r="D14">
-        <v>1.014428409807997</v>
+        <v>1.014301227672129</v>
       </c>
       <c r="E14">
-        <v>0.9949597876932198</v>
+        <v>0.9949111179785004</v>
       </c>
       <c r="F14">
-        <v>1.019648774761601</v>
+        <v>1.019557383738817</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.042394700300405</v>
+        <v>1.04235770919224</v>
       </c>
       <c r="J14">
-        <v>1.015063114557274</v>
+        <v>1.014994135118624</v>
       </c>
       <c r="K14">
-        <v>1.029099881244387</v>
+        <v>1.028975013034996</v>
       </c>
       <c r="L14">
-        <v>1.009994479692603</v>
+        <v>1.009946741308768</v>
       </c>
       <c r="M14">
-        <v>1.034225915061926</v>
+        <v>1.03413616466637</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.036927055806876</v>
+        <v>1.036856116055657</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.031715102116075</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.031642397519027</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020190473412</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.985506006921861</v>
+        <v>0.985415722304778</v>
       </c>
       <c r="D15">
-        <v>1.014757024134967</v>
+        <v>1.014606915586076</v>
       </c>
       <c r="E15">
-        <v>0.9953436815578507</v>
+        <v>0.9952788407048089</v>
       </c>
       <c r="F15">
-        <v>1.02002438952281</v>
+        <v>1.019916315891129</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.042491997504761</v>
+        <v>1.042444857020901</v>
       </c>
       <c r="J15">
-        <v>1.01533961305705</v>
+        <v>1.015253220707765</v>
       </c>
       <c r="K15">
-        <v>1.029335496653196</v>
+        <v>1.029188098275761</v>
       </c>
       <c r="L15">
-        <v>1.010281527424275</v>
+        <v>1.010217917601274</v>
       </c>
       <c r="M15">
-        <v>1.034508416734645</v>
+        <v>1.034402268168589</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.010174360971594</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.037187954806084</v>
+        <v>1.037104055964616</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.031887590012359</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.031799525362074</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020239942668216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9880623969200879</v>
+        <v>0.9878958598973303</v>
       </c>
       <c r="D16">
-        <v>1.016373378741048</v>
+        <v>1.016121870506226</v>
       </c>
       <c r="E16">
-        <v>0.9973156427338762</v>
+        <v>0.997184236873675</v>
       </c>
       <c r="F16">
-        <v>1.021694976434979</v>
+        <v>1.02151368735617</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.042916037348674</v>
+        <v>1.042826286587354</v>
       </c>
       <c r="J16">
-        <v>1.016679453419063</v>
+        <v>1.016519732463534</v>
       </c>
       <c r="K16">
-        <v>1.030417339896594</v>
+        <v>1.030170174044503</v>
       </c>
       <c r="L16">
-        <v>1.011696712998482</v>
+        <v>1.011567689735912</v>
       </c>
       <c r="M16">
-        <v>1.035647705455453</v>
+        <v>1.03546950415358</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.038049651682139</v>
+        <v>1.037908798992605</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.032655678826169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.032497370330443</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020444514571354</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9895495269039177</v>
+        <v>0.9893466123184692</v>
       </c>
       <c r="D17">
-        <v>1.017273570119301</v>
+        <v>1.016971106457496</v>
       </c>
       <c r="E17">
-        <v>0.9984502602357949</v>
+        <v>0.99828771164653</v>
       </c>
       <c r="F17">
-        <v>1.022534859850234</v>
+        <v>1.022317021336056</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.043126820826008</v>
+        <v>1.043016691340489</v>
       </c>
       <c r="J17">
-        <v>1.017415310789943</v>
+        <v>1.017220431301533</v>
       </c>
       <c r="K17">
-        <v>1.030985361226098</v>
+        <v>1.030687973147428</v>
       </c>
       <c r="L17">
-        <v>1.012485516676094</v>
+        <v>1.012325830236907</v>
       </c>
       <c r="M17">
-        <v>1.036158980652748</v>
+        <v>1.035944748989213</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.03832447495054</v>
+        <v>1.038155126452273</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.033059893595463</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.032866321846503</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020541311324299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9902428018958769</v>
+        <v>0.9900357453056275</v>
       </c>
       <c r="D18">
-        <v>1.017616517418964</v>
+        <v>1.017303460384574</v>
       </c>
       <c r="E18">
-        <v>0.9989544161790074</v>
+        <v>0.9987895694515531</v>
       </c>
       <c r="F18">
-        <v>1.022685786939983</v>
+        <v>1.022460764777384</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.043163980799191</v>
+        <v>1.043051600167947</v>
       </c>
       <c r="J18">
-        <v>1.017679560684604</v>
+        <v>1.017480548282728</v>
       </c>
       <c r="K18">
-        <v>1.031137940807397</v>
+        <v>1.030830051520639</v>
       </c>
       <c r="L18">
-        <v>1.012791222201733</v>
+        <v>1.012629229264506</v>
       </c>
       <c r="M18">
-        <v>1.036124095888565</v>
+        <v>1.03590274067139</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.038058641651005</v>
+        <v>1.03788362539121</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.033156087266275</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.032953952878785</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020547199354651</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9902290609722632</v>
+        <v>0.9900462993233836</v>
       </c>
       <c r="D19">
-        <v>1.017470181391071</v>
+        <v>1.017182568548198</v>
       </c>
       <c r="E19">
-        <v>0.9988988509967939</v>
+        <v>0.9987570464932167</v>
       </c>
       <c r="F19">
-        <v>1.022215735625928</v>
+        <v>1.022009733315296</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.04305404523427</v>
+        <v>1.042955426354909</v>
       </c>
       <c r="J19">
-        <v>1.017529534292496</v>
+        <v>1.017353831361501</v>
       </c>
       <c r="K19">
-        <v>1.03093105584104</v>
+        <v>1.030648166962161</v>
       </c>
       <c r="L19">
-        <v>1.012671973166363</v>
+        <v>1.01253261064387</v>
       </c>
       <c r="M19">
-        <v>1.035599158486136</v>
+        <v>1.035396499133569</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624638</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.037317133356852</v>
+        <v>1.03715684645205</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.033016234910758</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.032832403927799</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020477031492346</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9882181677328753</v>
+        <v>0.988139136064357</v>
       </c>
       <c r="D20">
-        <v>1.015938987708625</v>
+        <v>1.015776755193075</v>
       </c>
       <c r="E20">
-        <v>0.9972611200814391</v>
+        <v>0.9972132041892083</v>
       </c>
       <c r="F20">
-        <v>1.020046747330662</v>
+        <v>1.019932755382097</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.042527730697424</v>
+        <v>1.042487479378387</v>
       </c>
       <c r="J20">
-        <v>1.016210937711216</v>
+        <v>1.01613505679337</v>
       </c>
       <c r="K20">
-        <v>1.029707242033044</v>
+        <v>1.02954774843537</v>
       </c>
       <c r="L20">
-        <v>1.011352300965186</v>
+        <v>1.011305233683036</v>
       </c>
       <c r="M20">
-        <v>1.033746025778345</v>
+        <v>1.033633938279553</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.035321132486879</v>
+        <v>1.035232426532348</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.032154885879865</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.032058696661313</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020190575619397</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9834145847635811</v>
+        <v>0.9834951796118393</v>
       </c>
       <c r="D21">
-        <v>1.012835440008499</v>
+        <v>1.012879091855474</v>
       </c>
       <c r="E21">
-        <v>0.9935297958170808</v>
+        <v>0.9936224906844172</v>
       </c>
       <c r="F21">
-        <v>1.016718790985886</v>
+        <v>1.016754699358602</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.041678205026106</v>
+        <v>1.041726779756557</v>
       </c>
       <c r="J21">
-        <v>1.013622482882537</v>
+        <v>1.013699543849799</v>
       </c>
       <c r="K21">
-        <v>1.027577654068518</v>
+        <v>1.027620506033526</v>
       </c>
       <c r="L21">
-        <v>1.008634793834491</v>
+        <v>1.008725702699513</v>
       </c>
       <c r="M21">
-        <v>1.031390195601287</v>
+        <v>1.031425452499841</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.033415589372164</v>
+        <v>1.033443493120742</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.030652420061928</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.030699636501715</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019772347430347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9803532162899941</v>
+        <v>0.9805352445858091</v>
       </c>
       <c r="D22">
-        <v>1.010869708250612</v>
+        <v>1.011043367024211</v>
       </c>
       <c r="E22">
-        <v>0.9911622303828285</v>
+        <v>0.9913439611116274</v>
       </c>
       <c r="F22">
-        <v>1.014646452541095</v>
+        <v>1.014777218380754</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.041132324919427</v>
+        <v>1.04123678020108</v>
       </c>
       <c r="J22">
-        <v>1.0119806193838</v>
+        <v>1.012154192870055</v>
       </c>
       <c r="K22">
-        <v>1.026228866334055</v>
+        <v>1.026399181853969</v>
       </c>
       <c r="L22">
-        <v>1.006910822069846</v>
+        <v>1.007088868482442</v>
       </c>
       <c r="M22">
-        <v>1.029933239061239</v>
+        <v>1.030061511733128</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.032262493527716</v>
+        <v>1.032364013917566</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.029685177051173</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.029821217831211</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019505992947969</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9819713192547095</v>
+        <v>0.9820996651215653</v>
       </c>
       <c r="D23">
-        <v>1.011902489616959</v>
+        <v>1.012007288551186</v>
       </c>
       <c r="E23">
-        <v>0.9924113026828487</v>
+        <v>0.9925459678804691</v>
       </c>
       <c r="F23">
-        <v>1.015738871999207</v>
+        <v>1.015819403359923</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.041417678271885</v>
+        <v>1.041492622532796</v>
       </c>
       <c r="J23">
-        <v>1.012843998312083</v>
+        <v>1.012966560794571</v>
       </c>
       <c r="K23">
-        <v>1.026934348872506</v>
+        <v>1.027037181936871</v>
       </c>
       <c r="L23">
-        <v>1.007818270930272</v>
+        <v>1.007950278103337</v>
       </c>
       <c r="M23">
-        <v>1.03069911134406</v>
+        <v>1.030778146857486</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.032868636859386</v>
+        <v>1.032931188837876</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.030174297081062</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.030261675699896</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019644092846835</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9882340667184223</v>
+        <v>0.9881577480676603</v>
       </c>
       <c r="D24">
-        <v>1.015920882800944</v>
+        <v>1.015761145476809</v>
       </c>
       <c r="E24">
-        <v>0.997265250372801</v>
+        <v>0.9972199630878129</v>
       </c>
       <c r="F24">
-        <v>1.019990112767531</v>
+        <v>1.019878068736394</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.042509235986055</v>
+        <v>1.042470526333488</v>
       </c>
       <c r="J24">
-        <v>1.016192682353726</v>
+        <v>1.016119401856088</v>
       </c>
       <c r="K24">
-        <v>1.02967406182222</v>
+        <v>1.029517017944543</v>
       </c>
       <c r="L24">
-        <v>1.011340562089835</v>
+        <v>1.011296075814793</v>
       </c>
       <c r="M24">
-        <v>1.033675044079517</v>
+        <v>1.033564869817793</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.035223909430464</v>
+        <v>1.035136713239458</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.032103883221664</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.032006747868431</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020177790634711</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9952586052256051</v>
+        <v>0.9949587710775842</v>
       </c>
       <c r="D25">
-        <v>1.020449562155427</v>
+        <v>1.019996752200095</v>
       </c>
       <c r="E25">
-        <v>1.002742304964959</v>
+        <v>1.002499746240193</v>
       </c>
       <c r="F25">
-        <v>1.024796454653183</v>
+        <v>1.024471907301887</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.043691783168895</v>
+        <v>1.043526909163712</v>
       </c>
       <c r="J25">
-        <v>1.019946596635134</v>
+        <v>1.019656991950337</v>
       </c>
       <c r="K25">
-        <v>1.032738507488681</v>
+        <v>1.032292377230855</v>
       </c>
       <c r="L25">
-        <v>1.015298198820309</v>
+        <v>1.015059380414028</v>
       </c>
       <c r="M25">
-        <v>1.037021657135208</v>
+        <v>1.03670184524035</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.037872543910436</v>
+        <v>1.037619433266467</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.034267746482022</v>
+        <v>1.033965896057043</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020764222486808</v>
       </c>
     </row>
   </sheetData>
